--- a/BOM/XUF208_Clock_BOM.xlsx
+++ b/BOM/XUF208_Clock_BOM.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="XUF208_Clock_BOM" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="XUF208_Clock" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="Print_Titles">XUF208_Clock_BOM!$1:$1</definedName>
+    <definedName localSheetId="0" name="Print_Titles">XUF208_Clock!$1:$1</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Quantity</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Manufacturer Part Number</t>
+    <t>Manufacturer_Part_Number</t>
   </si>
   <si>
-    <t>C1, C4, C6</t>
+    <t>C1, C5</t>
   </si>
   <si>
     <t>100nF</t>
@@ -68,7 +68,7 @@
     <t>CL10A475KO8NNNC</t>
   </si>
   <si>
-    <t>C3, C5</t>
+    <t>C3, C4, C6</t>
   </si>
   <si>
     <t>1uF</t>
@@ -155,9 +155,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>27MHz</t>
-  </si>
-  <si>
     <t>SiTime Ultra Performance Oscillator</t>
   </si>
   <si>
@@ -184,12 +181,27 @@
   <si>
     <t>CDCE913PWR</t>
   </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TLV702 300-mA, Low-IQ, Low-Dropout Regulator</t>
+  </si>
+  <si>
+    <t>TLV70218DBVR</t>
+  </si>
+  <si>
+    <t>TLV702</t>
+  </si>
+  <si>
+    <t>DBV5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -199,7 +211,13 @@
       <sz val="10.0"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+    </font>
     <font/>
+    <font>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -276,10 +294,10 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -288,11 +306,23 @@
     <xf quotePrefix="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,11 +550,12 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.14"/>
     <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="6.71"/>
-    <col customWidth="1" min="4" max="4" width="19.57"/>
-    <col customWidth="1" min="5" max="6" width="12.14"/>
+    <col customWidth="1" min="3" max="3" width="6.14"/>
+    <col customWidth="1" min="4" max="4" width="30.14"/>
+    <col customWidth="1" min="5" max="5" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="12.14"/>
     <col customWidth="1" min="7" max="7" width="17.43"/>
-    <col customWidth="1" min="8" max="8" width="26.86"/>
+    <col customWidth="1" min="8" max="8" width="25.57"/>
     <col customWidth="1" min="9" max="26" width="0.71"/>
   </cols>
   <sheetData>
@@ -535,7 +566,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -550,7 +581,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4"/>
@@ -572,14 +603,14 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="27.0" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -594,7 +625,7 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="4"/>
@@ -616,14 +647,14 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="27.0" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="5">
         <v>1.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -638,7 +669,7 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="4"/>
@@ -660,14 +691,14 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="27.0" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -682,7 +713,7 @@
       <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="4"/>
@@ -704,14 +735,14 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="27.0" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="5">
         <v>2.0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
@@ -724,7 +755,7 @@
       <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="4"/>
@@ -753,7 +784,7 @@
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,7 +797,7 @@
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -793,7 +824,7 @@
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
@@ -806,7 +837,7 @@
       <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -833,7 +864,7 @@
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -848,7 +879,7 @@
       <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="4"/>
@@ -877,7 +908,7 @@
       <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -892,7 +923,7 @@
       <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="4"/>
@@ -921,7 +952,7 @@
       <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -936,7 +967,7 @@
       <c r="G10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="4"/>
@@ -958,30 +989,28 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" ht="27.0" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="5">
         <v>1.0</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1002,28 +1031,30 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" ht="67.5" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="5">
         <v>1.0</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1045,14 +1076,30 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1075,7 +1122,7 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1103,7 +1150,7 @@
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1131,7 +1178,7 @@
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1159,7 +1206,7 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1187,7 +1234,7 @@
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1215,7 +1262,7 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1243,7 +1290,7 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1271,7 +1318,7 @@
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1299,7 +1346,7 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1327,7 +1374,7 @@
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1355,7 +1402,7 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1383,7 +1430,7 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1411,7 +1458,7 @@
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1439,7 +1486,7 @@
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1467,7 +1514,7 @@
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1495,7 +1542,7 @@
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1523,7 +1570,7 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1551,7 +1598,7 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1579,7 +1626,7 @@
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1607,7 +1654,7 @@
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1635,7 +1682,7 @@
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1663,7 +1710,7 @@
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1691,7 +1738,7 @@
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1719,7 +1766,7 @@
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1747,7 +1794,7 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1775,7 +1822,7 @@
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1803,7 +1850,7 @@
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1831,7 +1878,7 @@
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1859,7 +1906,7 @@
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1887,7 +1934,7 @@
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1915,7 +1962,7 @@
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1943,7 +1990,7 @@
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1971,7 +2018,7 @@
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1999,7 +2046,7 @@
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2027,7 +2074,7 @@
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2055,7 +2102,7 @@
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2083,7 +2130,7 @@
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2111,7 +2158,7 @@
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2139,7 +2186,7 @@
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2167,7 +2214,7 @@
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2195,7 +2242,7 @@
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2223,7 +2270,7 @@
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2251,7 +2298,7 @@
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2279,7 +2326,7 @@
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2307,7 +2354,7 @@
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2335,7 +2382,7 @@
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2363,7 +2410,7 @@
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2391,7 +2438,7 @@
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2419,7 +2466,7 @@
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2447,7 +2494,7 @@
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2475,7 +2522,7 @@
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2503,7 +2550,7 @@
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2531,7 +2578,7 @@
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -2559,7 +2606,7 @@
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2587,7 +2634,7 @@
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2615,7 +2662,7 @@
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -2643,7 +2690,7 @@
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -2671,7 +2718,7 @@
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -2699,7 +2746,7 @@
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -2727,7 +2774,7 @@
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2755,7 +2802,7 @@
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -2783,7 +2830,7 @@
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -2811,7 +2858,7 @@
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -2839,7 +2886,7 @@
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -2867,7 +2914,7 @@
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -2895,7 +2942,7 @@
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -2923,7 +2970,7 @@
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -2951,7 +2998,7 @@
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -2979,7 +3026,7 @@
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3007,7 +3054,7 @@
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -3035,7 +3082,7 @@
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -3063,7 +3110,7 @@
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -3091,7 +3138,7 @@
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3119,7 +3166,7 @@
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -3147,7 +3194,7 @@
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -3175,7 +3222,7 @@
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -3203,7 +3250,7 @@
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -3231,7 +3278,7 @@
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -3259,7 +3306,7 @@
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -3287,7 +3334,7 @@
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -3315,7 +3362,7 @@
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -3343,7 +3390,7 @@
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -3371,7 +3418,7 @@
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -3399,7 +3446,7 @@
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3427,7 +3474,7 @@
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -3455,7 +3502,7 @@
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3483,7 +3530,7 @@
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -3511,7 +3558,7 @@
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3539,7 +3586,7 @@
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -3567,7 +3614,7 @@
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -3595,7 +3642,7 @@
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -3623,7 +3670,7 @@
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -3651,7 +3698,7 @@
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3679,7 +3726,7 @@
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3707,7 +3754,7 @@
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3735,7 +3782,7 @@
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -3763,7 +3810,7 @@
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -3791,7 +3838,7 @@
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3819,7 +3866,7 @@
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3847,7 +3894,7 @@
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -3875,7 +3922,7 @@
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3903,7 +3950,7 @@
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -3931,7 +3978,7 @@
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -3959,7 +4006,7 @@
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3987,7 +4034,7 @@
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -4015,7 +4062,7 @@
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -4043,7 +4090,7 @@
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -4071,7 +4118,7 @@
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -4099,7 +4146,7 @@
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -4127,7 +4174,7 @@
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -4155,7 +4202,7 @@
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -4183,7 +4230,7 @@
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4211,7 +4258,7 @@
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -4239,7 +4286,7 @@
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -4267,7 +4314,7 @@
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -4295,7 +4342,7 @@
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -4323,7 +4370,7 @@
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -4351,7 +4398,7 @@
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -4379,7 +4426,7 @@
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -4407,7 +4454,7 @@
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -4435,7 +4482,7 @@
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -4463,7 +4510,7 @@
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -4491,7 +4538,7 @@
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -4519,7 +4566,7 @@
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4547,7 +4594,7 @@
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4575,7 +4622,7 @@
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -4603,7 +4650,7 @@
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -4631,7 +4678,7 @@
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -4659,7 +4706,7 @@
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -4687,7 +4734,7 @@
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -4715,7 +4762,7 @@
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -4743,7 +4790,7 @@
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4771,7 +4818,7 @@
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -4799,7 +4846,7 @@
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -4827,7 +4874,7 @@
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -4855,7 +4902,7 @@
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -4883,7 +4930,7 @@
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -4911,7 +4958,7 @@
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -4939,7 +4986,7 @@
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -4967,7 +5014,7 @@
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -4995,7 +5042,7 @@
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -5023,7 +5070,7 @@
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -5051,7 +5098,7 @@
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -5079,7 +5126,7 @@
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -5107,7 +5154,7 @@
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -5135,7 +5182,7 @@
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -5163,7 +5210,7 @@
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -5191,7 +5238,7 @@
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -5219,7 +5266,7 @@
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -5247,7 +5294,7 @@
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -5275,7 +5322,7 @@
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -5303,7 +5350,7 @@
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -5331,7 +5378,7 @@
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -5359,7 +5406,7 @@
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -5387,7 +5434,7 @@
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -5415,7 +5462,7 @@
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -5443,7 +5490,7 @@
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -5471,7 +5518,7 @@
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -5499,7 +5546,7 @@
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -5527,7 +5574,7 @@
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -5555,7 +5602,7 @@
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -5583,7 +5630,7 @@
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -5611,7 +5658,7 @@
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -5639,7 +5686,7 @@
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -5667,7 +5714,7 @@
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -5695,7 +5742,7 @@
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -5723,7 +5770,7 @@
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -5751,7 +5798,7 @@
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -5779,7 +5826,7 @@
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -5807,7 +5854,7 @@
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -5835,7 +5882,7 @@
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="C184" s="12"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -5863,7 +5910,7 @@
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -5891,7 +5938,7 @@
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -5919,7 +5966,7 @@
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -5947,7 +5994,7 @@
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -5975,7 +6022,7 @@
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -6003,7 +6050,7 @@
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="C190" s="12"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -6031,7 +6078,7 @@
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="C191" s="12"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -6059,7 +6106,7 @@
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -6087,7 +6134,7 @@
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -6115,7 +6162,7 @@
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -6143,7 +6190,7 @@
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -6171,7 +6218,7 @@
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -6199,7 +6246,7 @@
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -6227,7 +6274,7 @@
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="C198" s="12"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -6255,7 +6302,7 @@
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -6283,7 +6330,7 @@
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -6311,7 +6358,7 @@
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -6339,7 +6386,7 @@
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -6367,7 +6414,7 @@
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="C203" s="12"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -6395,7 +6442,7 @@
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="C204" s="12"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -6423,7 +6470,7 @@
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -6451,7 +6498,7 @@
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="C206" s="12"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -6479,7 +6526,7 @@
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -6507,7 +6554,7 @@
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+      <c r="C208" s="12"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -6535,7 +6582,7 @@
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -6563,7 +6610,7 @@
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+      <c r="C210" s="12"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -6591,7 +6638,7 @@
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
+      <c r="C211" s="12"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -6619,7 +6666,7 @@
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -6647,7 +6694,7 @@
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -6675,7 +6722,7 @@
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+      <c r="C214" s="12"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -6703,7 +6750,7 @@
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -6731,7 +6778,7 @@
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -6759,7 +6806,7 @@
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -6787,7 +6834,7 @@
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
+      <c r="C218" s="12"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -6815,7 +6862,7 @@
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+      <c r="C219" s="12"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -6843,7 +6890,7 @@
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+      <c r="C220" s="12"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -6871,7 +6918,7 @@
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="C221" s="12"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -6899,7 +6946,7 @@
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="C222" s="12"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -6927,7 +6974,7 @@
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="C223" s="12"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -6955,7 +7002,7 @@
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="C224" s="12"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -6983,7 +7030,7 @@
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="C225" s="12"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -7011,7 +7058,7 @@
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="C226" s="12"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -7039,7 +7086,7 @@
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="C227" s="12"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -7067,7 +7114,7 @@
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="C228" s="12"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -7095,7 +7142,7 @@
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="C229" s="12"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -7123,7 +7170,7 @@
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="C230" s="12"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -7151,7 +7198,7 @@
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="C231" s="12"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -7179,7 +7226,7 @@
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+      <c r="C232" s="12"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -7207,7 +7254,7 @@
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+      <c r="C233" s="12"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -7235,7 +7282,7 @@
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+      <c r="C234" s="12"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -7263,7 +7310,7 @@
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+      <c r="C235" s="12"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -7291,7 +7338,7 @@
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="12"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -7319,7 +7366,7 @@
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -7347,7 +7394,7 @@
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+      <c r="C238" s="12"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -7375,7 +7422,7 @@
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="C239" s="12"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -7403,7 +7450,7 @@
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="C240" s="12"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -7431,7 +7478,7 @@
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -7459,7 +7506,7 @@
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="C242" s="12"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -7487,7 +7534,7 @@
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="C243" s="12"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -7515,7 +7562,7 @@
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+      <c r="C244" s="12"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -7543,7 +7590,7 @@
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
+      <c r="C245" s="12"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -7571,7 +7618,7 @@
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+      <c r="C246" s="12"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -7599,7 +7646,7 @@
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
+      <c r="C247" s="12"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -7627,7 +7674,7 @@
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
+      <c r="C248" s="12"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -7655,7 +7702,7 @@
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
+      <c r="C249" s="12"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -7683,7 +7730,7 @@
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
+      <c r="C250" s="12"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -7711,7 +7758,7 @@
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -7739,7 +7786,7 @@
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -7767,7 +7814,7 @@
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="C253" s="12"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -7795,7 +7842,7 @@
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="C254" s="12"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -7823,7 +7870,7 @@
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+      <c r="C255" s="12"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -7851,7 +7898,7 @@
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
+      <c r="C256" s="12"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -7879,7 +7926,7 @@
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+      <c r="C257" s="12"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -7907,7 +7954,7 @@
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
+      <c r="C258" s="12"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -7935,7 +7982,7 @@
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
+      <c r="C259" s="12"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -7963,7 +8010,7 @@
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
+      <c r="C260" s="12"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -7991,7 +8038,7 @@
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -8019,7 +8066,7 @@
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
+      <c r="C262" s="12"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -8047,7 +8094,7 @@
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+      <c r="C263" s="12"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -8075,7 +8122,7 @@
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+      <c r="C264" s="12"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -8103,7 +8150,7 @@
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+      <c r="C265" s="12"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -8131,7 +8178,7 @@
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -8159,7 +8206,7 @@
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+      <c r="C267" s="12"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -8187,7 +8234,7 @@
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+      <c r="C268" s="12"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -8215,7 +8262,7 @@
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -8243,7 +8290,7 @@
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
+      <c r="C270" s="12"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -8271,7 +8318,7 @@
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -8299,7 +8346,7 @@
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
+      <c r="C272" s="12"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -8327,7 +8374,7 @@
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -8355,7 +8402,7 @@
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -8383,7 +8430,7 @@
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
+      <c r="C275" s="12"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -8411,7 +8458,7 @@
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -8439,7 +8486,7 @@
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
+      <c r="C277" s="12"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -8467,7 +8514,7 @@
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
+      <c r="C278" s="12"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -8495,7 +8542,7 @@
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+      <c r="C279" s="12"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -8523,7 +8570,7 @@
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="4"/>
+      <c r="C280" s="12"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -8551,7 +8598,7 @@
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+      <c r="C281" s="12"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -8579,7 +8626,7 @@
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="4"/>
+      <c r="C282" s="12"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -8607,7 +8654,7 @@
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="4"/>
+      <c r="C283" s="12"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -8635,7 +8682,7 @@
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="4"/>
+      <c r="C284" s="12"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -8663,7 +8710,7 @@
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
+      <c r="C285" s="12"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -8691,7 +8738,7 @@
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
+      <c r="C286" s="12"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -8719,7 +8766,7 @@
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
+      <c r="C287" s="12"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -8747,7 +8794,7 @@
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
+      <c r="C288" s="12"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -8775,7 +8822,7 @@
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
+      <c r="C289" s="12"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -8803,7 +8850,7 @@
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
+      <c r="C290" s="12"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -8831,7 +8878,7 @@
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
-      <c r="C291" s="4"/>
+      <c r="C291" s="12"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
@@ -8859,7 +8906,7 @@
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
+      <c r="C292" s="12"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -8887,7 +8934,7 @@
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
@@ -8915,7 +8962,7 @@
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
@@ -8943,7 +8990,7 @@
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="4"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -8971,7 +9018,7 @@
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
+      <c r="C296" s="12"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -8999,7 +9046,7 @@
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -9027,7 +9074,7 @@
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="C298" s="12"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
@@ -9055,7 +9102,7 @@
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+      <c r="C299" s="12"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
@@ -9083,7 +9130,7 @@
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
@@ -9111,7 +9158,7 @@
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+      <c r="C301" s="12"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -9139,7 +9186,7 @@
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="C302" s="12"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -9167,7 +9214,7 @@
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -9195,7 +9242,7 @@
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
-      <c r="C304" s="4"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -9223,7 +9270,7 @@
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
+      <c r="C305" s="12"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -9251,7 +9298,7 @@
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
+      <c r="C306" s="12"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -9279,7 +9326,7 @@
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
@@ -9307,7 +9354,7 @@
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -9335,7 +9382,7 @@
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
+      <c r="C309" s="12"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -9363,7 +9410,7 @@
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
+      <c r="C310" s="12"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -9391,7 +9438,7 @@
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -9419,7 +9466,7 @@
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
+      <c r="C312" s="12"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -9447,7 +9494,7 @@
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
+      <c r="C313" s="12"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -9475,7 +9522,7 @@
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
+      <c r="C314" s="12"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -9503,7 +9550,7 @@
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="4"/>
+      <c r="C315" s="12"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -9531,7 +9578,7 @@
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -9559,7 +9606,7 @@
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
-      <c r="C317" s="4"/>
+      <c r="C317" s="12"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -9587,7 +9634,7 @@
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="4"/>
+      <c r="C318" s="12"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -9615,7 +9662,7 @@
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
+      <c r="C319" s="12"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -9643,7 +9690,7 @@
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
+      <c r="C320" s="12"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -9671,7 +9718,7 @@
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
+      <c r="C321" s="12"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -9699,7 +9746,7 @@
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
+      <c r="C322" s="12"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -9727,7 +9774,7 @@
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
+      <c r="C323" s="12"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -9755,7 +9802,7 @@
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
+      <c r="C324" s="12"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -9783,7 +9830,7 @@
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="4"/>
+      <c r="C325" s="12"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -9811,7 +9858,7 @@
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="C326" s="12"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -9839,7 +9886,7 @@
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
-      <c r="C327" s="4"/>
+      <c r="C327" s="12"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -9867,7 +9914,7 @@
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
-      <c r="C328" s="4"/>
+      <c r="C328" s="12"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -9895,7 +9942,7 @@
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
-      <c r="C329" s="4"/>
+      <c r="C329" s="12"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -9923,7 +9970,7 @@
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
+      <c r="C330" s="12"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -9951,7 +9998,7 @@
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
+      <c r="C331" s="12"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -9979,7 +10026,7 @@
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
+      <c r="C332" s="12"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -10007,7 +10054,7 @@
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
+      <c r="C333" s="12"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -10035,7 +10082,7 @@
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
+      <c r="C334" s="12"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -10063,7 +10110,7 @@
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
+      <c r="C335" s="12"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -10091,7 +10138,7 @@
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
-      <c r="C336" s="4"/>
+      <c r="C336" s="12"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -10119,7 +10166,7 @@
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="4"/>
+      <c r="C337" s="12"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
@@ -10147,7 +10194,7 @@
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="4"/>
+      <c r="C338" s="12"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -10175,7 +10222,7 @@
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="4"/>
+      <c r="C339" s="12"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
@@ -10203,7 +10250,7 @@
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="4"/>
+      <c r="C340" s="12"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
@@ -10231,7 +10278,7 @@
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
+      <c r="C341" s="12"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
@@ -10259,7 +10306,7 @@
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+      <c r="C342" s="12"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
@@ -10287,7 +10334,7 @@
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
+      <c r="C343" s="12"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -10315,7 +10362,7 @@
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
+      <c r="C344" s="12"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
@@ -10343,7 +10390,7 @@
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
+      <c r="C345" s="12"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
@@ -10371,7 +10418,7 @@
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
+      <c r="C346" s="12"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
@@ -10399,7 +10446,7 @@
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="4"/>
+      <c r="C347" s="12"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
@@ -10427,7 +10474,7 @@
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
+      <c r="C348" s="12"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
@@ -10455,7 +10502,7 @@
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
+      <c r="C349" s="12"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
@@ -10483,7 +10530,7 @@
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
+      <c r="C350" s="12"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
@@ -10511,7 +10558,7 @@
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
+      <c r="C351" s="12"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -10539,7 +10586,7 @@
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="4"/>
+      <c r="C352" s="12"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -10567,7 +10614,7 @@
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
+      <c r="C353" s="12"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -10595,7 +10642,7 @@
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -10623,7 +10670,7 @@
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -10651,7 +10698,7 @@
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
+      <c r="C356" s="12"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -10679,7 +10726,7 @@
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
+      <c r="C357" s="12"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -10707,7 +10754,7 @@
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
+      <c r="C358" s="12"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -10735,7 +10782,7 @@
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="4"/>
+      <c r="C359" s="12"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -10763,7 +10810,7 @@
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="4"/>
+      <c r="C360" s="12"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -10791,7 +10838,7 @@
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
-      <c r="C361" s="4"/>
+      <c r="C361" s="12"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -10819,7 +10866,7 @@
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
-      <c r="C362" s="4"/>
+      <c r="C362" s="12"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -10847,7 +10894,7 @@
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
-      <c r="C363" s="4"/>
+      <c r="C363" s="12"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -10875,7 +10922,7 @@
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
+      <c r="C364" s="12"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -10903,7 +10950,7 @@
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
+      <c r="C365" s="12"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
@@ -10931,7 +10978,7 @@
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
+      <c r="C366" s="12"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
@@ -10959,7 +11006,7 @@
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
+      <c r="C367" s="12"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
@@ -10987,7 +11034,7 @@
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
+      <c r="C368" s="12"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
@@ -11015,7 +11062,7 @@
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
+      <c r="C369" s="12"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -11043,7 +11090,7 @@
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
+      <c r="C370" s="12"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -11071,7 +11118,7 @@
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
-      <c r="C371" s="4"/>
+      <c r="C371" s="12"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -11099,7 +11146,7 @@
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
-      <c r="C372" s="4"/>
+      <c r="C372" s="12"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -11127,7 +11174,7 @@
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
+      <c r="C373" s="12"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
@@ -11155,7 +11202,7 @@
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
+      <c r="C374" s="12"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
@@ -11183,7 +11230,7 @@
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
+      <c r="C375" s="12"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
@@ -11211,7 +11258,7 @@
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
+      <c r="C376" s="12"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
@@ -11239,7 +11286,7 @@
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
+      <c r="C377" s="12"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
@@ -11267,7 +11314,7 @@
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
+      <c r="C378" s="12"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
@@ -11295,7 +11342,7 @@
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
+      <c r="C379" s="12"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
@@ -11323,7 +11370,7 @@
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
+      <c r="C380" s="12"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
@@ -11351,7 +11398,7 @@
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
-      <c r="C381" s="4"/>
+      <c r="C381" s="12"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
@@ -11379,7 +11426,7 @@
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="12"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
@@ -11407,7 +11454,7 @@
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
-      <c r="C383" s="4"/>
+      <c r="C383" s="12"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
@@ -11435,7 +11482,7 @@
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
-      <c r="C384" s="4"/>
+      <c r="C384" s="12"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
@@ -11463,7 +11510,7 @@
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
-      <c r="C385" s="4"/>
+      <c r="C385" s="12"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
@@ -11491,7 +11538,7 @@
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
-      <c r="C386" s="4"/>
+      <c r="C386" s="12"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -11519,7 +11566,7 @@
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="12"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
@@ -11547,7 +11594,7 @@
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="12"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -11575,7 +11622,7 @@
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
+      <c r="C389" s="12"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
@@ -11603,7 +11650,7 @@
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
@@ -11631,7 +11678,7 @@
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
+      <c r="C391" s="12"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -11659,7 +11706,7 @@
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
+      <c r="C392" s="12"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -11687,7 +11734,7 @@
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -11715,7 +11762,7 @@
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
-      <c r="C394" s="4"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -11743,7 +11790,7 @@
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
-      <c r="C395" s="4"/>
+      <c r="C395" s="12"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
@@ -11771,7 +11818,7 @@
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
-      <c r="C396" s="4"/>
+      <c r="C396" s="12"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
@@ -11799,7 +11846,7 @@
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
-      <c r="C397" s="4"/>
+      <c r="C397" s="12"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -11827,7 +11874,7 @@
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
@@ -11855,7 +11902,7 @@
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -11883,7 +11930,7 @@
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="12"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -11911,7 +11958,7 @@
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
@@ -11939,7 +11986,7 @@
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
+      <c r="C402" s="12"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -11967,7 +12014,7 @@
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
+      <c r="C403" s="12"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -11995,7 +12042,7 @@
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
-      <c r="C404" s="4"/>
+      <c r="C404" s="12"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
@@ -12023,7 +12070,7 @@
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
-      <c r="C405" s="4"/>
+      <c r="C405" s="12"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
@@ -12051,7 +12098,7 @@
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
-      <c r="C406" s="4"/>
+      <c r="C406" s="12"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
@@ -12079,7 +12126,7 @@
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
-      <c r="C407" s="4"/>
+      <c r="C407" s="12"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
@@ -12107,7 +12154,7 @@
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
-      <c r="C408" s="4"/>
+      <c r="C408" s="12"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -12135,7 +12182,7 @@
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
@@ -12163,7 +12210,7 @@
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
+      <c r="C410" s="12"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
@@ -12191,7 +12238,7 @@
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
+      <c r="C411" s="12"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
@@ -12219,7 +12266,7 @@
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
+      <c r="C412" s="12"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
@@ -12247,7 +12294,7 @@
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
+      <c r="C413" s="12"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
@@ -12275,7 +12322,7 @@
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
+      <c r="C414" s="12"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
@@ -12303,7 +12350,7 @@
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
-      <c r="C415" s="4"/>
+      <c r="C415" s="12"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
@@ -12331,7 +12378,7 @@
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
-      <c r="C416" s="4"/>
+      <c r="C416" s="12"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
@@ -12359,7 +12406,7 @@
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
-      <c r="C417" s="4"/>
+      <c r="C417" s="12"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
@@ -12387,7 +12434,7 @@
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
-      <c r="C418" s="4"/>
+      <c r="C418" s="12"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
@@ -12415,7 +12462,7 @@
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
-      <c r="C419" s="4"/>
+      <c r="C419" s="12"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
@@ -12443,7 +12490,7 @@
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
+      <c r="C420" s="12"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
@@ -12471,7 +12518,7 @@
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
+      <c r="C421" s="12"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
@@ -12499,7 +12546,7 @@
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
+      <c r="C422" s="12"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
@@ -12527,7 +12574,7 @@
     <row r="423" ht="12.75" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
+      <c r="C423" s="12"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
@@ -12555,7 +12602,7 @@
     <row r="424" ht="12.75" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
+      <c r="C424" s="12"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
@@ -12583,7 +12630,7 @@
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
+      <c r="C425" s="12"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
@@ -12611,7 +12658,7 @@
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
-      <c r="C426" s="4"/>
+      <c r="C426" s="12"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
@@ -12639,7 +12686,7 @@
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="4"/>
+      <c r="C427" s="12"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -12667,7 +12714,7 @@
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="4"/>
+      <c r="C428" s="12"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -12695,7 +12742,7 @@
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
+      <c r="C429" s="12"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
@@ -12723,7 +12770,7 @@
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
+      <c r="C430" s="12"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
@@ -12751,7 +12798,7 @@
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
+      <c r="C431" s="12"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
@@ -12779,7 +12826,7 @@
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
+      <c r="C432" s="12"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
@@ -12807,7 +12854,7 @@
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
+      <c r="C433" s="12"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -12835,7 +12882,7 @@
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
+      <c r="C434" s="12"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
@@ -12863,7 +12910,7 @@
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
-      <c r="C435" s="4"/>
+      <c r="C435" s="12"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -12891,7 +12938,7 @@
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
-      <c r="C436" s="4"/>
+      <c r="C436" s="12"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -12919,7 +12966,7 @@
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
-      <c r="C437" s="4"/>
+      <c r="C437" s="12"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
@@ -12947,7 +12994,7 @@
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
+      <c r="C438" s="12"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
@@ -12975,7 +13022,7 @@
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
-      <c r="C439" s="4"/>
+      <c r="C439" s="12"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
@@ -13003,7 +13050,7 @@
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
-      <c r="C440" s="4"/>
+      <c r="C440" s="12"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
@@ -13031,7 +13078,7 @@
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
-      <c r="C441" s="4"/>
+      <c r="C441" s="12"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
@@ -13059,7 +13106,7 @@
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
-      <c r="C442" s="4"/>
+      <c r="C442" s="12"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
@@ -13087,7 +13134,7 @@
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
-      <c r="C443" s="4"/>
+      <c r="C443" s="12"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
@@ -13115,7 +13162,7 @@
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
-      <c r="C444" s="4"/>
+      <c r="C444" s="12"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
@@ -13143,7 +13190,7 @@
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
+      <c r="C445" s="12"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
@@ -13171,7 +13218,7 @@
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
+      <c r="C446" s="12"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
@@ -13199,7 +13246,7 @@
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
+      <c r="C447" s="12"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
@@ -13227,7 +13274,7 @@
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
+      <c r="C448" s="12"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -13255,7 +13302,7 @@
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
-      <c r="C449" s="4"/>
+      <c r="C449" s="12"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
@@ -13283,7 +13330,7 @@
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
-      <c r="C450" s="4"/>
+      <c r="C450" s="12"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -13311,7 +13358,7 @@
     <row r="451" ht="12.75" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
-      <c r="C451" s="4"/>
+      <c r="C451" s="12"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
@@ -13339,7 +13386,7 @@
     <row r="452" ht="12.75" customHeight="1">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
-      <c r="C452" s="4"/>
+      <c r="C452" s="12"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
@@ -13367,7 +13414,7 @@
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
-      <c r="C453" s="4"/>
+      <c r="C453" s="12"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
@@ -13395,7 +13442,7 @@
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
-      <c r="C454" s="4"/>
+      <c r="C454" s="12"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
@@ -13423,7 +13470,7 @@
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
-      <c r="C455" s="4"/>
+      <c r="C455" s="12"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
@@ -13451,7 +13498,7 @@
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
+      <c r="C456" s="12"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
@@ -13479,7 +13526,7 @@
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
+      <c r="C457" s="12"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
@@ -13507,7 +13554,7 @@
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
+      <c r="C458" s="12"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
@@ -13535,7 +13582,7 @@
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
+      <c r="C459" s="12"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
@@ -13563,7 +13610,7 @@
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
+      <c r="C460" s="12"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
@@ -13591,7 +13638,7 @@
     <row r="461" ht="12.75" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
+      <c r="C461" s="12"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
@@ -13619,7 +13666,7 @@
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
+      <c r="C462" s="12"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
@@ -13647,7 +13694,7 @@
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
+      <c r="C463" s="12"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
@@ -13675,7 +13722,7 @@
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
+      <c r="C464" s="12"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
@@ -13703,7 +13750,7 @@
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
+      <c r="C465" s="12"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
@@ -13731,7 +13778,7 @@
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
+      <c r="C466" s="12"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
@@ -13759,7 +13806,7 @@
     <row r="467" ht="12.75" customHeight="1">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="4"/>
+      <c r="C467" s="12"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
@@ -13787,7 +13834,7 @@
     <row r="468" ht="12.75" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="4"/>
+      <c r="C468" s="12"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
@@ -13815,7 +13862,7 @@
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="4"/>
+      <c r="C469" s="12"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -13843,7 +13890,7 @@
     <row r="470" ht="12.75" customHeight="1">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
-      <c r="C470" s="4"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
@@ -13871,7 +13918,7 @@
     <row r="471" ht="12.75" customHeight="1">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
-      <c r="C471" s="4"/>
+      <c r="C471" s="12"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
@@ -13899,7 +13946,7 @@
     <row r="472" ht="12.75" customHeight="1">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
-      <c r="C472" s="4"/>
+      <c r="C472" s="12"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
@@ -13927,7 +13974,7 @@
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
-      <c r="C473" s="4"/>
+      <c r="C473" s="12"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -13955,7 +14002,7 @@
     <row r="474" ht="12.75" customHeight="1">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
+      <c r="C474" s="12"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
@@ -13983,7 +14030,7 @@
     <row r="475" ht="12.75" customHeight="1">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
-      <c r="C475" s="4"/>
+      <c r="C475" s="12"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -14011,7 +14058,7 @@
     <row r="476" ht="12.75" customHeight="1">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="4"/>
+      <c r="C476" s="12"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -14039,7 +14086,7 @@
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
-      <c r="C477" s="4"/>
+      <c r="C477" s="12"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
@@ -14067,7 +14114,7 @@
     <row r="478" ht="12.75" customHeight="1">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
-      <c r="C478" s="4"/>
+      <c r="C478" s="12"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
@@ -14095,7 +14142,7 @@
     <row r="479" ht="12.75" customHeight="1">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
-      <c r="C479" s="4"/>
+      <c r="C479" s="12"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -14123,7 +14170,7 @@
     <row r="480" ht="12.75" customHeight="1">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="4"/>
+      <c r="C480" s="12"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -14151,7 +14198,7 @@
     <row r="481" ht="12.75" customHeight="1">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
-      <c r="C481" s="4"/>
+      <c r="C481" s="12"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
@@ -14179,7 +14226,7 @@
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
-      <c r="C482" s="4"/>
+      <c r="C482" s="12"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
@@ -14207,7 +14254,7 @@
     <row r="483" ht="12.75" customHeight="1">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
+      <c r="C483" s="12"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -14235,7 +14282,7 @@
     <row r="484" ht="12.75" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
-      <c r="C484" s="4"/>
+      <c r="C484" s="12"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
@@ -14263,7 +14310,7 @@
     <row r="485" ht="12.75" customHeight="1">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
-      <c r="C485" s="4"/>
+      <c r="C485" s="12"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
@@ -14291,7 +14338,7 @@
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
-      <c r="C486" s="4"/>
+      <c r="C486" s="12"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
@@ -14319,7 +14366,7 @@
     <row r="487" ht="12.75" customHeight="1">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
-      <c r="C487" s="4"/>
+      <c r="C487" s="12"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
@@ -14347,7 +14394,7 @@
     <row r="488" ht="12.75" customHeight="1">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
-      <c r="C488" s="4"/>
+      <c r="C488" s="12"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -14375,7 +14422,7 @@
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
-      <c r="C489" s="4"/>
+      <c r="C489" s="12"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -14403,7 +14450,7 @@
     <row r="490" ht="12.75" customHeight="1">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
-      <c r="C490" s="4"/>
+      <c r="C490" s="12"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
@@ -14431,7 +14478,7 @@
     <row r="491" ht="12.75" customHeight="1">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
-      <c r="C491" s="4"/>
+      <c r="C491" s="12"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -14459,7 +14506,7 @@
     <row r="492" ht="12.75" customHeight="1">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
-      <c r="C492" s="4"/>
+      <c r="C492" s="12"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -14487,7 +14534,7 @@
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
-      <c r="C493" s="4"/>
+      <c r="C493" s="12"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -14515,7 +14562,7 @@
     <row r="494" ht="12.75" customHeight="1">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
-      <c r="C494" s="4"/>
+      <c r="C494" s="12"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
@@ -14543,7 +14590,7 @@
     <row r="495" ht="12.75" customHeight="1">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
-      <c r="C495" s="4"/>
+      <c r="C495" s="12"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
@@ -14571,7 +14618,7 @@
     <row r="496" ht="12.75" customHeight="1">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
-      <c r="C496" s="4"/>
+      <c r="C496" s="12"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
@@ -14599,7 +14646,7 @@
     <row r="497" ht="12.75" customHeight="1">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
-      <c r="C497" s="4"/>
+      <c r="C497" s="12"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
@@ -14627,7 +14674,7 @@
     <row r="498" ht="12.75" customHeight="1">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
-      <c r="C498" s="4"/>
+      <c r="C498" s="12"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
@@ -14655,7 +14702,7 @@
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
-      <c r="C499" s="4"/>
+      <c r="C499" s="12"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
@@ -14683,7 +14730,7 @@
     <row r="500" ht="12.75" customHeight="1">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
-      <c r="C500" s="4"/>
+      <c r="C500" s="12"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
@@ -14711,7 +14758,7 @@
     <row r="501" ht="12.75" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
-      <c r="C501" s="4"/>
+      <c r="C501" s="12"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
@@ -14739,7 +14786,7 @@
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
-      <c r="C502" s="4"/>
+      <c r="C502" s="12"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
@@ -14767,7 +14814,7 @@
     <row r="503" ht="12.75" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
-      <c r="C503" s="4"/>
+      <c r="C503" s="12"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
@@ -14795,7 +14842,7 @@
     <row r="504" ht="12.75" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
-      <c r="C504" s="4"/>
+      <c r="C504" s="12"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
@@ -14823,7 +14870,7 @@
     <row r="505" ht="12.75" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
-      <c r="C505" s="4"/>
+      <c r="C505" s="12"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
@@ -14851,7 +14898,7 @@
     <row r="506" ht="12.75" customHeight="1">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
-      <c r="C506" s="4"/>
+      <c r="C506" s="12"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
@@ -14879,7 +14926,7 @@
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
-      <c r="C507" s="4"/>
+      <c r="C507" s="12"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
@@ -14907,7 +14954,7 @@
     <row r="508" ht="12.75" customHeight="1">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
-      <c r="C508" s="4"/>
+      <c r="C508" s="12"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
@@ -14935,7 +14982,7 @@
     <row r="509" ht="12.75" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
-      <c r="C509" s="4"/>
+      <c r="C509" s="12"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
@@ -14963,7 +15010,7 @@
     <row r="510" ht="12.75" customHeight="1">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
-      <c r="C510" s="4"/>
+      <c r="C510" s="12"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
@@ -14991,7 +15038,7 @@
     <row r="511" ht="12.75" customHeight="1">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
-      <c r="C511" s="4"/>
+      <c r="C511" s="12"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
@@ -15019,7 +15066,7 @@
     <row r="512" ht="12.75" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
-      <c r="C512" s="4"/>
+      <c r="C512" s="12"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
@@ -15047,7 +15094,7 @@
     <row r="513" ht="12.75" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
-      <c r="C513" s="4"/>
+      <c r="C513" s="12"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
@@ -15075,7 +15122,7 @@
     <row r="514" ht="12.75" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
-      <c r="C514" s="4"/>
+      <c r="C514" s="12"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
@@ -15103,7 +15150,7 @@
     <row r="515" ht="12.75" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
-      <c r="C515" s="4"/>
+      <c r="C515" s="12"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -15131,7 +15178,7 @@
     <row r="516" ht="12.75" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
-      <c r="C516" s="4"/>
+      <c r="C516" s="12"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
@@ -15159,7 +15206,7 @@
     <row r="517" ht="12.75" customHeight="1">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
-      <c r="C517" s="4"/>
+      <c r="C517" s="12"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
@@ -15187,7 +15234,7 @@
     <row r="518" ht="12.75" customHeight="1">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
-      <c r="C518" s="4"/>
+      <c r="C518" s="12"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
@@ -15215,7 +15262,7 @@
     <row r="519" ht="12.75" customHeight="1">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
-      <c r="C519" s="4"/>
+      <c r="C519" s="12"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
@@ -15243,7 +15290,7 @@
     <row r="520" ht="12.75" customHeight="1">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
-      <c r="C520" s="4"/>
+      <c r="C520" s="12"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
@@ -15271,7 +15318,7 @@
     <row r="521" ht="12.75" customHeight="1">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
-      <c r="C521" s="4"/>
+      <c r="C521" s="12"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
@@ -15299,7 +15346,7 @@
     <row r="522" ht="12.75" customHeight="1">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
-      <c r="C522" s="4"/>
+      <c r="C522" s="12"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
@@ -15327,7 +15374,7 @@
     <row r="523" ht="12.75" customHeight="1">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
-      <c r="C523" s="4"/>
+      <c r="C523" s="12"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
@@ -15355,7 +15402,7 @@
     <row r="524" ht="12.75" customHeight="1">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
-      <c r="C524" s="4"/>
+      <c r="C524" s="12"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
@@ -15383,7 +15430,7 @@
     <row r="525" ht="12.75" customHeight="1">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
-      <c r="C525" s="4"/>
+      <c r="C525" s="12"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
@@ -15411,7 +15458,7 @@
     <row r="526" ht="12.75" customHeight="1">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
-      <c r="C526" s="4"/>
+      <c r="C526" s="12"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
@@ -15439,7 +15486,7 @@
     <row r="527" ht="12.75" customHeight="1">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
-      <c r="C527" s="4"/>
+      <c r="C527" s="12"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -15467,7 +15514,7 @@
     <row r="528" ht="12.75" customHeight="1">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
-      <c r="C528" s="4"/>
+      <c r="C528" s="12"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -15495,7 +15542,7 @@
     <row r="529" ht="12.75" customHeight="1">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
-      <c r="C529" s="4"/>
+      <c r="C529" s="12"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
@@ -15523,7 +15570,7 @@
     <row r="530" ht="12.75" customHeight="1">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
-      <c r="C530" s="4"/>
+      <c r="C530" s="12"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
@@ -15551,7 +15598,7 @@
     <row r="531" ht="12.75" customHeight="1">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
-      <c r="C531" s="4"/>
+      <c r="C531" s="12"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
@@ -15579,7 +15626,7 @@
     <row r="532" ht="12.75" customHeight="1">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
-      <c r="C532" s="4"/>
+      <c r="C532" s="12"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
@@ -15607,7 +15654,7 @@
     <row r="533" ht="12.75" customHeight="1">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
-      <c r="C533" s="4"/>
+      <c r="C533" s="12"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
@@ -15635,7 +15682,7 @@
     <row r="534" ht="12.75" customHeight="1">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
-      <c r="C534" s="4"/>
+      <c r="C534" s="12"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
@@ -15663,7 +15710,7 @@
     <row r="535" ht="12.75" customHeight="1">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
-      <c r="C535" s="4"/>
+      <c r="C535" s="12"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
@@ -15691,7 +15738,7 @@
     <row r="536" ht="12.75" customHeight="1">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
-      <c r="C536" s="4"/>
+      <c r="C536" s="12"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -15719,7 +15766,7 @@
     <row r="537" ht="12.75" customHeight="1">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
-      <c r="C537" s="4"/>
+      <c r="C537" s="12"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
@@ -15747,7 +15794,7 @@
     <row r="538" ht="12.75" customHeight="1">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
-      <c r="C538" s="4"/>
+      <c r="C538" s="12"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
@@ -15775,7 +15822,7 @@
     <row r="539" ht="12.75" customHeight="1">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
-      <c r="C539" s="4"/>
+      <c r="C539" s="12"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
@@ -15803,7 +15850,7 @@
     <row r="540" ht="12.75" customHeight="1">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
-      <c r="C540" s="4"/>
+      <c r="C540" s="12"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
@@ -15831,7 +15878,7 @@
     <row r="541" ht="12.75" customHeight="1">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
-      <c r="C541" s="4"/>
+      <c r="C541" s="12"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
@@ -15859,7 +15906,7 @@
     <row r="542" ht="12.75" customHeight="1">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
-      <c r="C542" s="4"/>
+      <c r="C542" s="12"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
@@ -15887,7 +15934,7 @@
     <row r="543" ht="12.75" customHeight="1">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
-      <c r="C543" s="4"/>
+      <c r="C543" s="12"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
@@ -15915,7 +15962,7 @@
     <row r="544" ht="12.75" customHeight="1">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
-      <c r="C544" s="4"/>
+      <c r="C544" s="12"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
@@ -15943,7 +15990,7 @@
     <row r="545" ht="12.75" customHeight="1">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
+      <c r="C545" s="12"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
@@ -15971,7 +16018,7 @@
     <row r="546" ht="12.75" customHeight="1">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
+      <c r="C546" s="12"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
@@ -15999,7 +16046,7 @@
     <row r="547" ht="12.75" customHeight="1">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
+      <c r="C547" s="12"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
@@ -16027,7 +16074,7 @@
     <row r="548" ht="12.75" customHeight="1">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
+      <c r="C548" s="12"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
@@ -16055,7 +16102,7 @@
     <row r="549" ht="12.75" customHeight="1">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
+      <c r="C549" s="12"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
@@ -16083,7 +16130,7 @@
     <row r="550" ht="12.75" customHeight="1">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
+      <c r="C550" s="12"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
@@ -16111,7 +16158,7 @@
     <row r="551" ht="12.75" customHeight="1">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
+      <c r="C551" s="12"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
@@ -16139,7 +16186,7 @@
     <row r="552" ht="12.75" customHeight="1">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
+      <c r="C552" s="12"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
@@ -16167,7 +16214,7 @@
     <row r="553" ht="12.75" customHeight="1">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
+      <c r="C553" s="12"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
@@ -16195,7 +16242,7 @@
     <row r="554" ht="12.75" customHeight="1">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
+      <c r="C554" s="12"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
@@ -16223,7 +16270,7 @@
     <row r="555" ht="12.75" customHeight="1">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
+      <c r="C555" s="12"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
@@ -16251,7 +16298,7 @@
     <row r="556" ht="12.75" customHeight="1">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
+      <c r="C556" s="12"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
@@ -16279,7 +16326,7 @@
     <row r="557" ht="12.75" customHeight="1">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
+      <c r="C557" s="12"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
@@ -16307,7 +16354,7 @@
     <row r="558" ht="12.75" customHeight="1">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
+      <c r="C558" s="12"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
@@ -16335,7 +16382,7 @@
     <row r="559" ht="12.75" customHeight="1">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
+      <c r="C559" s="12"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
@@ -16363,7 +16410,7 @@
     <row r="560" ht="12.75" customHeight="1">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
+      <c r="C560" s="12"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
@@ -16391,7 +16438,7 @@
     <row r="561" ht="12.75" customHeight="1">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
-      <c r="C561" s="4"/>
+      <c r="C561" s="12"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
@@ -16419,7 +16466,7 @@
     <row r="562" ht="12.75" customHeight="1">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
-      <c r="C562" s="4"/>
+      <c r="C562" s="12"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
@@ -16447,7 +16494,7 @@
     <row r="563" ht="12.75" customHeight="1">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
-      <c r="C563" s="4"/>
+      <c r="C563" s="12"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
@@ -16475,7 +16522,7 @@
     <row r="564" ht="12.75" customHeight="1">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
+      <c r="C564" s="12"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
@@ -16503,7 +16550,7 @@
     <row r="565" ht="12.75" customHeight="1">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
-      <c r="C565" s="4"/>
+      <c r="C565" s="12"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
@@ -16531,7 +16578,7 @@
     <row r="566" ht="12.75" customHeight="1">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
+      <c r="C566" s="12"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
@@ -16559,7 +16606,7 @@
     <row r="567" ht="12.75" customHeight="1">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
+      <c r="C567" s="12"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
@@ -16587,7 +16634,7 @@
     <row r="568" ht="12.75" customHeight="1">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
+      <c r="C568" s="12"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
@@ -16615,7 +16662,7 @@
     <row r="569" ht="12.75" customHeight="1">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
+      <c r="C569" s="12"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
@@ -16643,7 +16690,7 @@
     <row r="570" ht="12.75" customHeight="1">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
+      <c r="C570" s="12"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
@@ -16671,7 +16718,7 @@
     <row r="571" ht="12.75" customHeight="1">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
+      <c r="C571" s="12"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
@@ -16699,7 +16746,7 @@
     <row r="572" ht="12.75" customHeight="1">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
+      <c r="C572" s="12"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
@@ -16727,7 +16774,7 @@
     <row r="573" ht="12.75" customHeight="1">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
-      <c r="C573" s="4"/>
+      <c r="C573" s="12"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
@@ -16755,7 +16802,7 @@
     <row r="574" ht="12.75" customHeight="1">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
-      <c r="C574" s="4"/>
+      <c r="C574" s="12"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
@@ -16783,7 +16830,7 @@
     <row r="575" ht="12.75" customHeight="1">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
-      <c r="C575" s="4"/>
+      <c r="C575" s="12"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
@@ -16811,7 +16858,7 @@
     <row r="576" ht="12.75" customHeight="1">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
-      <c r="C576" s="4"/>
+      <c r="C576" s="12"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -16839,7 +16886,7 @@
     <row r="577" ht="12.75" customHeight="1">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
-      <c r="C577" s="4"/>
+      <c r="C577" s="12"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
@@ -16867,7 +16914,7 @@
     <row r="578" ht="12.75" customHeight="1">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
+      <c r="C578" s="12"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
@@ -16895,7 +16942,7 @@
     <row r="579" ht="12.75" customHeight="1">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
+      <c r="C579" s="12"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
@@ -16923,7 +16970,7 @@
     <row r="580" ht="12.75" customHeight="1">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
+      <c r="C580" s="12"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
@@ -16951,7 +16998,7 @@
     <row r="581" ht="12.75" customHeight="1">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
+      <c r="C581" s="12"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
@@ -16979,7 +17026,7 @@
     <row r="582" ht="12.75" customHeight="1">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
+      <c r="C582" s="12"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
@@ -17007,7 +17054,7 @@
     <row r="583" ht="12.75" customHeight="1">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
+      <c r="C583" s="12"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
@@ -17035,7 +17082,7 @@
     <row r="584" ht="12.75" customHeight="1">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
+      <c r="C584" s="12"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
@@ -17063,7 +17110,7 @@
     <row r="585" ht="12.75" customHeight="1">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
+      <c r="C585" s="12"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
@@ -17091,7 +17138,7 @@
     <row r="586" ht="12.75" customHeight="1">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
+      <c r="C586" s="12"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
@@ -17119,7 +17166,7 @@
     <row r="587" ht="12.75" customHeight="1">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
-      <c r="C587" s="4"/>
+      <c r="C587" s="12"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
@@ -17147,7 +17194,7 @@
     <row r="588" ht="12.75" customHeight="1">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
-      <c r="C588" s="4"/>
+      <c r="C588" s="12"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
@@ -17175,7 +17222,7 @@
     <row r="589" ht="12.75" customHeight="1">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
-      <c r="C589" s="4"/>
+      <c r="C589" s="12"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
@@ -17203,7 +17250,7 @@
     <row r="590" ht="12.75" customHeight="1">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
-      <c r="C590" s="4"/>
+      <c r="C590" s="12"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
@@ -17231,7 +17278,7 @@
     <row r="591" ht="12.75" customHeight="1">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
-      <c r="C591" s="4"/>
+      <c r="C591" s="12"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
@@ -17259,7 +17306,7 @@
     <row r="592" ht="12.75" customHeight="1">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
-      <c r="C592" s="4"/>
+      <c r="C592" s="12"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
@@ -17287,7 +17334,7 @@
     <row r="593" ht="12.75" customHeight="1">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
-      <c r="C593" s="4"/>
+      <c r="C593" s="12"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
@@ -17315,7 +17362,7 @@
     <row r="594" ht="12.75" customHeight="1">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
-      <c r="C594" s="4"/>
+      <c r="C594" s="12"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
@@ -17343,7 +17390,7 @@
     <row r="595" ht="12.75" customHeight="1">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
-      <c r="C595" s="4"/>
+      <c r="C595" s="12"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
@@ -17371,7 +17418,7 @@
     <row r="596" ht="12.75" customHeight="1">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
-      <c r="C596" s="4"/>
+      <c r="C596" s="12"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
@@ -17399,7 +17446,7 @@
     <row r="597" ht="12.75" customHeight="1">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
-      <c r="C597" s="4"/>
+      <c r="C597" s="12"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
@@ -17427,7 +17474,7 @@
     <row r="598" ht="12.75" customHeight="1">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
-      <c r="C598" s="4"/>
+      <c r="C598" s="12"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
@@ -17455,7 +17502,7 @@
     <row r="599" ht="12.75" customHeight="1">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
-      <c r="C599" s="4"/>
+      <c r="C599" s="12"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
@@ -17483,7 +17530,7 @@
     <row r="600" ht="12.75" customHeight="1">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
-      <c r="C600" s="4"/>
+      <c r="C600" s="12"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
@@ -17511,7 +17558,7 @@
     <row r="601" ht="12.75" customHeight="1">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
-      <c r="C601" s="4"/>
+      <c r="C601" s="12"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
@@ -17539,7 +17586,7 @@
     <row r="602" ht="12.75" customHeight="1">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
-      <c r="C602" s="4"/>
+      <c r="C602" s="12"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
@@ -17567,7 +17614,7 @@
     <row r="603" ht="12.75" customHeight="1">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
-      <c r="C603" s="4"/>
+      <c r="C603" s="12"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
@@ -17595,7 +17642,7 @@
     <row r="604" ht="12.75" customHeight="1">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
-      <c r="C604" s="4"/>
+      <c r="C604" s="12"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
@@ -17623,7 +17670,7 @@
     <row r="605" ht="12.75" customHeight="1">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
-      <c r="C605" s="4"/>
+      <c r="C605" s="12"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
@@ -17651,7 +17698,7 @@
     <row r="606" ht="12.75" customHeight="1">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
-      <c r="C606" s="4"/>
+      <c r="C606" s="12"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
@@ -17679,7 +17726,7 @@
     <row r="607" ht="12.75" customHeight="1">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
-      <c r="C607" s="4"/>
+      <c r="C607" s="12"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
@@ -17707,7 +17754,7 @@
     <row r="608" ht="12.75" customHeight="1">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
-      <c r="C608" s="4"/>
+      <c r="C608" s="12"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
@@ -17735,7 +17782,7 @@
     <row r="609" ht="12.75" customHeight="1">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
-      <c r="C609" s="4"/>
+      <c r="C609" s="12"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
@@ -17763,7 +17810,7 @@
     <row r="610" ht="12.75" customHeight="1">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
-      <c r="C610" s="4"/>
+      <c r="C610" s="12"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
@@ -17791,7 +17838,7 @@
     <row r="611" ht="12.75" customHeight="1">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
-      <c r="C611" s="4"/>
+      <c r="C611" s="12"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
@@ -17819,7 +17866,7 @@
     <row r="612" ht="12.75" customHeight="1">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
-      <c r="C612" s="4"/>
+      <c r="C612" s="12"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
@@ -17847,7 +17894,7 @@
     <row r="613" ht="12.75" customHeight="1">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
-      <c r="C613" s="4"/>
+      <c r="C613" s="12"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
@@ -17875,7 +17922,7 @@
     <row r="614" ht="12.75" customHeight="1">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
-      <c r="C614" s="4"/>
+      <c r="C614" s="12"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
@@ -17903,7 +17950,7 @@
     <row r="615" ht="12.75" customHeight="1">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
-      <c r="C615" s="4"/>
+      <c r="C615" s="12"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
@@ -17931,7 +17978,7 @@
     <row r="616" ht="12.75" customHeight="1">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
-      <c r="C616" s="4"/>
+      <c r="C616" s="12"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
@@ -17959,7 +18006,7 @@
     <row r="617" ht="12.75" customHeight="1">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
-      <c r="C617" s="4"/>
+      <c r="C617" s="12"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
@@ -17987,7 +18034,7 @@
     <row r="618" ht="12.75" customHeight="1">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
-      <c r="C618" s="4"/>
+      <c r="C618" s="12"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
@@ -18015,7 +18062,7 @@
     <row r="619" ht="12.75" customHeight="1">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
-      <c r="C619" s="4"/>
+      <c r="C619" s="12"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
@@ -18043,7 +18090,7 @@
     <row r="620" ht="12.75" customHeight="1">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
-      <c r="C620" s="4"/>
+      <c r="C620" s="12"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
@@ -18071,7 +18118,7 @@
     <row r="621" ht="12.75" customHeight="1">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
-      <c r="C621" s="4"/>
+      <c r="C621" s="12"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
@@ -18099,7 +18146,7 @@
     <row r="622" ht="12.75" customHeight="1">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
-      <c r="C622" s="4"/>
+      <c r="C622" s="12"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
@@ -18127,7 +18174,7 @@
     <row r="623" ht="12.75" customHeight="1">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
-      <c r="C623" s="4"/>
+      <c r="C623" s="12"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
@@ -18155,7 +18202,7 @@
     <row r="624" ht="12.75" customHeight="1">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
+      <c r="C624" s="12"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
@@ -18183,7 +18230,7 @@
     <row r="625" ht="12.75" customHeight="1">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
-      <c r="C625" s="4"/>
+      <c r="C625" s="12"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
@@ -18211,7 +18258,7 @@
     <row r="626" ht="12.75" customHeight="1">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
-      <c r="C626" s="4"/>
+      <c r="C626" s="12"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
@@ -18239,7 +18286,7 @@
     <row r="627" ht="12.75" customHeight="1">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
-      <c r="C627" s="4"/>
+      <c r="C627" s="12"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
@@ -18267,7 +18314,7 @@
     <row r="628" ht="12.75" customHeight="1">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
-      <c r="C628" s="4"/>
+      <c r="C628" s="12"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
@@ -18295,7 +18342,7 @@
     <row r="629" ht="12.75" customHeight="1">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
-      <c r="C629" s="4"/>
+      <c r="C629" s="12"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
@@ -18323,7 +18370,7 @@
     <row r="630" ht="12.75" customHeight="1">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
-      <c r="C630" s="4"/>
+      <c r="C630" s="12"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
@@ -18351,7 +18398,7 @@
     <row r="631" ht="12.75" customHeight="1">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
-      <c r="C631" s="4"/>
+      <c r="C631" s="12"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
@@ -18379,7 +18426,7 @@
     <row r="632" ht="12.75" customHeight="1">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
-      <c r="C632" s="4"/>
+      <c r="C632" s="12"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
@@ -18407,7 +18454,7 @@
     <row r="633" ht="12.75" customHeight="1">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
-      <c r="C633" s="4"/>
+      <c r="C633" s="12"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
@@ -18435,7 +18482,7 @@
     <row r="634" ht="12.75" customHeight="1">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
-      <c r="C634" s="4"/>
+      <c r="C634" s="12"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
@@ -18463,7 +18510,7 @@
     <row r="635" ht="12.75" customHeight="1">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
-      <c r="C635" s="4"/>
+      <c r="C635" s="12"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
@@ -18491,7 +18538,7 @@
     <row r="636" ht="12.75" customHeight="1">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
-      <c r="C636" s="4"/>
+      <c r="C636" s="12"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
@@ -18519,7 +18566,7 @@
     <row r="637" ht="12.75" customHeight="1">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
-      <c r="C637" s="4"/>
+      <c r="C637" s="12"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
@@ -18547,7 +18594,7 @@
     <row r="638" ht="12.75" customHeight="1">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
-      <c r="C638" s="4"/>
+      <c r="C638" s="12"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
@@ -18575,7 +18622,7 @@
     <row r="639" ht="12.75" customHeight="1">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
-      <c r="C639" s="4"/>
+      <c r="C639" s="12"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
@@ -18603,7 +18650,7 @@
     <row r="640" ht="12.75" customHeight="1">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
-      <c r="C640" s="4"/>
+      <c r="C640" s="12"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
@@ -18631,7 +18678,7 @@
     <row r="641" ht="12.75" customHeight="1">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
-      <c r="C641" s="4"/>
+      <c r="C641" s="12"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
@@ -18659,7 +18706,7 @@
     <row r="642" ht="12.75" customHeight="1">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
-      <c r="C642" s="4"/>
+      <c r="C642" s="12"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
@@ -18687,7 +18734,7 @@
     <row r="643" ht="12.75" customHeight="1">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
-      <c r="C643" s="4"/>
+      <c r="C643" s="12"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
@@ -18715,7 +18762,7 @@
     <row r="644" ht="12.75" customHeight="1">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
-      <c r="C644" s="4"/>
+      <c r="C644" s="12"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
@@ -18743,7 +18790,7 @@
     <row r="645" ht="12.75" customHeight="1">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
-      <c r="C645" s="4"/>
+      <c r="C645" s="12"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
@@ -18771,7 +18818,7 @@
     <row r="646" ht="12.75" customHeight="1">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
-      <c r="C646" s="4"/>
+      <c r="C646" s="12"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
@@ -18799,7 +18846,7 @@
     <row r="647" ht="12.75" customHeight="1">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
-      <c r="C647" s="4"/>
+      <c r="C647" s="12"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
@@ -18827,7 +18874,7 @@
     <row r="648" ht="12.75" customHeight="1">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
-      <c r="C648" s="4"/>
+      <c r="C648" s="12"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
@@ -18855,7 +18902,7 @@
     <row r="649" ht="12.75" customHeight="1">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
-      <c r="C649" s="4"/>
+      <c r="C649" s="12"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
@@ -18883,7 +18930,7 @@
     <row r="650" ht="12.75" customHeight="1">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
-      <c r="C650" s="4"/>
+      <c r="C650" s="12"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
@@ -18911,7 +18958,7 @@
     <row r="651" ht="12.75" customHeight="1">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
-      <c r="C651" s="4"/>
+      <c r="C651" s="12"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
@@ -18939,7 +18986,7 @@
     <row r="652" ht="12.75" customHeight="1">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
-      <c r="C652" s="4"/>
+      <c r="C652" s="12"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
@@ -18967,7 +19014,7 @@
     <row r="653" ht="12.75" customHeight="1">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
-      <c r="C653" s="4"/>
+      <c r="C653" s="12"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
@@ -18995,7 +19042,7 @@
     <row r="654" ht="12.75" customHeight="1">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
-      <c r="C654" s="4"/>
+      <c r="C654" s="12"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
@@ -19023,7 +19070,7 @@
     <row r="655" ht="12.75" customHeight="1">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
-      <c r="C655" s="4"/>
+      <c r="C655" s="12"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
@@ -19051,7 +19098,7 @@
     <row r="656" ht="12.75" customHeight="1">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
-      <c r="C656" s="4"/>
+      <c r="C656" s="12"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
@@ -19079,7 +19126,7 @@
     <row r="657" ht="12.75" customHeight="1">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
-      <c r="C657" s="4"/>
+      <c r="C657" s="12"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
@@ -19107,7 +19154,7 @@
     <row r="658" ht="12.75" customHeight="1">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
-      <c r="C658" s="4"/>
+      <c r="C658" s="12"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
@@ -19135,7 +19182,7 @@
     <row r="659" ht="12.75" customHeight="1">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
-      <c r="C659" s="4"/>
+      <c r="C659" s="12"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
@@ -19163,7 +19210,7 @@
     <row r="660" ht="12.75" customHeight="1">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
-      <c r="C660" s="4"/>
+      <c r="C660" s="12"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
@@ -19191,7 +19238,7 @@
     <row r="661" ht="12.75" customHeight="1">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
-      <c r="C661" s="4"/>
+      <c r="C661" s="12"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
@@ -19219,7 +19266,7 @@
     <row r="662" ht="12.75" customHeight="1">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
-      <c r="C662" s="4"/>
+      <c r="C662" s="12"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
@@ -19247,7 +19294,7 @@
     <row r="663" ht="12.75" customHeight="1">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
-      <c r="C663" s="4"/>
+      <c r="C663" s="12"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
@@ -19275,7 +19322,7 @@
     <row r="664" ht="12.75" customHeight="1">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
-      <c r="C664" s="4"/>
+      <c r="C664" s="12"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
@@ -19303,7 +19350,7 @@
     <row r="665" ht="12.75" customHeight="1">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
-      <c r="C665" s="4"/>
+      <c r="C665" s="12"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
@@ -19331,7 +19378,7 @@
     <row r="666" ht="12.75" customHeight="1">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
-      <c r="C666" s="4"/>
+      <c r="C666" s="12"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
@@ -19359,7 +19406,7 @@
     <row r="667" ht="12.75" customHeight="1">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
-      <c r="C667" s="4"/>
+      <c r="C667" s="12"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
@@ -19387,7 +19434,7 @@
     <row r="668" ht="12.75" customHeight="1">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
-      <c r="C668" s="4"/>
+      <c r="C668" s="12"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
@@ -19415,7 +19462,7 @@
     <row r="669" ht="12.75" customHeight="1">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
-      <c r="C669" s="4"/>
+      <c r="C669" s="12"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
@@ -19443,7 +19490,7 @@
     <row r="670" ht="12.75" customHeight="1">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
-      <c r="C670" s="4"/>
+      <c r="C670" s="12"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
@@ -19471,7 +19518,7 @@
     <row r="671" ht="12.75" customHeight="1">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
-      <c r="C671" s="4"/>
+      <c r="C671" s="12"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
@@ -19499,7 +19546,7 @@
     <row r="672" ht="12.75" customHeight="1">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
-      <c r="C672" s="4"/>
+      <c r="C672" s="12"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
@@ -19527,7 +19574,7 @@
     <row r="673" ht="12.75" customHeight="1">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
-      <c r="C673" s="4"/>
+      <c r="C673" s="12"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
@@ -19555,7 +19602,7 @@
     <row r="674" ht="12.75" customHeight="1">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
-      <c r="C674" s="4"/>
+      <c r="C674" s="12"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
@@ -19583,7 +19630,7 @@
     <row r="675" ht="12.75" customHeight="1">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
-      <c r="C675" s="4"/>
+      <c r="C675" s="12"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
@@ -19611,7 +19658,7 @@
     <row r="676" ht="12.75" customHeight="1">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
-      <c r="C676" s="4"/>
+      <c r="C676" s="12"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
@@ -19639,7 +19686,7 @@
     <row r="677" ht="12.75" customHeight="1">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
-      <c r="C677" s="4"/>
+      <c r="C677" s="12"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
@@ -19667,7 +19714,7 @@
     <row r="678" ht="12.75" customHeight="1">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
-      <c r="C678" s="4"/>
+      <c r="C678" s="12"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
@@ -19695,7 +19742,7 @@
     <row r="679" ht="12.75" customHeight="1">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
-      <c r="C679" s="4"/>
+      <c r="C679" s="12"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
@@ -19723,7 +19770,7 @@
     <row r="680" ht="12.75" customHeight="1">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
-      <c r="C680" s="4"/>
+      <c r="C680" s="12"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
@@ -19751,7 +19798,7 @@
     <row r="681" ht="12.75" customHeight="1">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
-      <c r="C681" s="4"/>
+      <c r="C681" s="12"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
@@ -19779,7 +19826,7 @@
     <row r="682" ht="12.75" customHeight="1">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
-      <c r="C682" s="4"/>
+      <c r="C682" s="12"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
@@ -19807,7 +19854,7 @@
     <row r="683" ht="12.75" customHeight="1">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
-      <c r="C683" s="4"/>
+      <c r="C683" s="12"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
@@ -19835,7 +19882,7 @@
     <row r="684" ht="12.75" customHeight="1">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
-      <c r="C684" s="4"/>
+      <c r="C684" s="12"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
@@ -19863,7 +19910,7 @@
     <row r="685" ht="12.75" customHeight="1">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
-      <c r="C685" s="4"/>
+      <c r="C685" s="12"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
@@ -19891,7 +19938,7 @@
     <row r="686" ht="12.75" customHeight="1">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
-      <c r="C686" s="4"/>
+      <c r="C686" s="12"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
@@ -19919,7 +19966,7 @@
     <row r="687" ht="12.75" customHeight="1">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
-      <c r="C687" s="4"/>
+      <c r="C687" s="12"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
@@ -19947,7 +19994,7 @@
     <row r="688" ht="12.75" customHeight="1">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
-      <c r="C688" s="4"/>
+      <c r="C688" s="12"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
@@ -19975,7 +20022,7 @@
     <row r="689" ht="12.75" customHeight="1">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
-      <c r="C689" s="4"/>
+      <c r="C689" s="12"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
@@ -20003,7 +20050,7 @@
     <row r="690" ht="12.75" customHeight="1">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
-      <c r="C690" s="4"/>
+      <c r="C690" s="12"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
@@ -20031,7 +20078,7 @@
     <row r="691" ht="12.75" customHeight="1">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
-      <c r="C691" s="4"/>
+      <c r="C691" s="12"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
@@ -20059,7 +20106,7 @@
     <row r="692" ht="12.75" customHeight="1">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
-      <c r="C692" s="4"/>
+      <c r="C692" s="12"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
@@ -20087,7 +20134,7 @@
     <row r="693" ht="12.75" customHeight="1">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
-      <c r="C693" s="4"/>
+      <c r="C693" s="12"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
@@ -20115,7 +20162,7 @@
     <row r="694" ht="12.75" customHeight="1">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
-      <c r="C694" s="4"/>
+      <c r="C694" s="12"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
@@ -20143,7 +20190,7 @@
     <row r="695" ht="12.75" customHeight="1">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
-      <c r="C695" s="4"/>
+      <c r="C695" s="12"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
@@ -20171,7 +20218,7 @@
     <row r="696" ht="12.75" customHeight="1">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
-      <c r="C696" s="4"/>
+      <c r="C696" s="12"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
@@ -20199,7 +20246,7 @@
     <row r="697" ht="12.75" customHeight="1">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
-      <c r="C697" s="4"/>
+      <c r="C697" s="12"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
@@ -20227,7 +20274,7 @@
     <row r="698" ht="12.75" customHeight="1">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
-      <c r="C698" s="4"/>
+      <c r="C698" s="12"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
@@ -20255,7 +20302,7 @@
     <row r="699" ht="12.75" customHeight="1">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
-      <c r="C699" s="4"/>
+      <c r="C699" s="12"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
@@ -20283,7 +20330,7 @@
     <row r="700" ht="12.75" customHeight="1">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
-      <c r="C700" s="4"/>
+      <c r="C700" s="12"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
@@ -20311,7 +20358,7 @@
     <row r="701" ht="12.75" customHeight="1">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
-      <c r="C701" s="4"/>
+      <c r="C701" s="12"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
@@ -20339,7 +20386,7 @@
     <row r="702" ht="12.75" customHeight="1">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
-      <c r="C702" s="4"/>
+      <c r="C702" s="12"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
@@ -20367,7 +20414,7 @@
     <row r="703" ht="12.75" customHeight="1">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
-      <c r="C703" s="4"/>
+      <c r="C703" s="12"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
@@ -20395,7 +20442,7 @@
     <row r="704" ht="12.75" customHeight="1">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
-      <c r="C704" s="4"/>
+      <c r="C704" s="12"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
@@ -20423,7 +20470,7 @@
     <row r="705" ht="12.75" customHeight="1">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
-      <c r="C705" s="4"/>
+      <c r="C705" s="12"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
@@ -20451,7 +20498,7 @@
     <row r="706" ht="12.75" customHeight="1">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
-      <c r="C706" s="4"/>
+      <c r="C706" s="12"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
@@ -20479,7 +20526,7 @@
     <row r="707" ht="12.75" customHeight="1">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
-      <c r="C707" s="4"/>
+      <c r="C707" s="12"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
@@ -20507,7 +20554,7 @@
     <row r="708" ht="12.75" customHeight="1">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
-      <c r="C708" s="4"/>
+      <c r="C708" s="12"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
@@ -20535,7 +20582,7 @@
     <row r="709" ht="12.75" customHeight="1">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
-      <c r="C709" s="4"/>
+      <c r="C709" s="12"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
@@ -20563,7 +20610,7 @@
     <row r="710" ht="12.75" customHeight="1">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
-      <c r="C710" s="4"/>
+      <c r="C710" s="12"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
@@ -20591,7 +20638,7 @@
     <row r="711" ht="12.75" customHeight="1">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
-      <c r="C711" s="4"/>
+      <c r="C711" s="12"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
@@ -20619,7 +20666,7 @@
     <row r="712" ht="12.75" customHeight="1">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
-      <c r="C712" s="4"/>
+      <c r="C712" s="12"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
@@ -20647,7 +20694,7 @@
     <row r="713" ht="12.75" customHeight="1">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
-      <c r="C713" s="4"/>
+      <c r="C713" s="12"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
@@ -20675,7 +20722,7 @@
     <row r="714" ht="12.75" customHeight="1">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
-      <c r="C714" s="4"/>
+      <c r="C714" s="12"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
@@ -20703,7 +20750,7 @@
     <row r="715" ht="12.75" customHeight="1">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
-      <c r="C715" s="4"/>
+      <c r="C715" s="12"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
@@ -20731,7 +20778,7 @@
     <row r="716" ht="12.75" customHeight="1">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
-      <c r="C716" s="4"/>
+      <c r="C716" s="12"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
@@ -20759,7 +20806,7 @@
     <row r="717" ht="12.75" customHeight="1">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
-      <c r="C717" s="4"/>
+      <c r="C717" s="12"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
@@ -20787,7 +20834,7 @@
     <row r="718" ht="12.75" customHeight="1">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
-      <c r="C718" s="4"/>
+      <c r="C718" s="12"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
@@ -20815,7 +20862,7 @@
     <row r="719" ht="12.75" customHeight="1">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
-      <c r="C719" s="4"/>
+      <c r="C719" s="12"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
@@ -20843,7 +20890,7 @@
     <row r="720" ht="12.75" customHeight="1">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
-      <c r="C720" s="4"/>
+      <c r="C720" s="12"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
@@ -20871,7 +20918,7 @@
     <row r="721" ht="12.75" customHeight="1">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
-      <c r="C721" s="4"/>
+      <c r="C721" s="12"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
@@ -20899,7 +20946,7 @@
     <row r="722" ht="12.75" customHeight="1">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
-      <c r="C722" s="4"/>
+      <c r="C722" s="12"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
@@ -20927,7 +20974,7 @@
     <row r="723" ht="12.75" customHeight="1">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
-      <c r="C723" s="4"/>
+      <c r="C723" s="12"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
@@ -20955,7 +21002,7 @@
     <row r="724" ht="12.75" customHeight="1">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
-      <c r="C724" s="4"/>
+      <c r="C724" s="12"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
@@ -20983,7 +21030,7 @@
     <row r="725" ht="12.75" customHeight="1">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
-      <c r="C725" s="4"/>
+      <c r="C725" s="12"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
@@ -21011,7 +21058,7 @@
     <row r="726" ht="12.75" customHeight="1">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
-      <c r="C726" s="4"/>
+      <c r="C726" s="12"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
@@ -21039,7 +21086,7 @@
     <row r="727" ht="12.75" customHeight="1">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
-      <c r="C727" s="4"/>
+      <c r="C727" s="12"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
@@ -21067,7 +21114,7 @@
     <row r="728" ht="12.75" customHeight="1">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
-      <c r="C728" s="4"/>
+      <c r="C728" s="12"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
@@ -21095,7 +21142,7 @@
     <row r="729" ht="12.75" customHeight="1">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
-      <c r="C729" s="4"/>
+      <c r="C729" s="12"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
@@ -21123,7 +21170,7 @@
     <row r="730" ht="12.75" customHeight="1">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
-      <c r="C730" s="4"/>
+      <c r="C730" s="12"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
@@ -21151,7 +21198,7 @@
     <row r="731" ht="12.75" customHeight="1">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
-      <c r="C731" s="4"/>
+      <c r="C731" s="12"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
@@ -21179,7 +21226,7 @@
     <row r="732" ht="12.75" customHeight="1">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
-      <c r="C732" s="4"/>
+      <c r="C732" s="12"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
@@ -21207,7 +21254,7 @@
     <row r="733" ht="12.75" customHeight="1">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
-      <c r="C733" s="4"/>
+      <c r="C733" s="12"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
@@ -21235,7 +21282,7 @@
     <row r="734" ht="12.75" customHeight="1">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
-      <c r="C734" s="4"/>
+      <c r="C734" s="12"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
@@ -21263,7 +21310,7 @@
     <row r="735" ht="12.75" customHeight="1">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
+      <c r="C735" s="12"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
@@ -21291,7 +21338,7 @@
     <row r="736" ht="12.75" customHeight="1">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
-      <c r="C736" s="4"/>
+      <c r="C736" s="12"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
@@ -21319,7 +21366,7 @@
     <row r="737" ht="12.75" customHeight="1">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
-      <c r="C737" s="4"/>
+      <c r="C737" s="12"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
@@ -21347,7 +21394,7 @@
     <row r="738" ht="12.75" customHeight="1">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
-      <c r="C738" s="4"/>
+      <c r="C738" s="12"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
@@ -21375,7 +21422,7 @@
     <row r="739" ht="12.75" customHeight="1">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
-      <c r="C739" s="4"/>
+      <c r="C739" s="12"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
@@ -21403,7 +21450,7 @@
     <row r="740" ht="12.75" customHeight="1">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
-      <c r="C740" s="4"/>
+      <c r="C740" s="12"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
@@ -21431,7 +21478,7 @@
     <row r="741" ht="12.75" customHeight="1">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
-      <c r="C741" s="4"/>
+      <c r="C741" s="12"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
@@ -21459,7 +21506,7 @@
     <row r="742" ht="12.75" customHeight="1">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
-      <c r="C742" s="4"/>
+      <c r="C742" s="12"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
@@ -21487,7 +21534,7 @@
     <row r="743" ht="12.75" customHeight="1">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
-      <c r="C743" s="4"/>
+      <c r="C743" s="12"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
@@ -21515,7 +21562,7 @@
     <row r="744" ht="12.75" customHeight="1">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
-      <c r="C744" s="4"/>
+      <c r="C744" s="12"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
@@ -21543,7 +21590,7 @@
     <row r="745" ht="12.75" customHeight="1">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
-      <c r="C745" s="4"/>
+      <c r="C745" s="12"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
@@ -21571,7 +21618,7 @@
     <row r="746" ht="12.75" customHeight="1">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
-      <c r="C746" s="4"/>
+      <c r="C746" s="12"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
@@ -21599,7 +21646,7 @@
     <row r="747" ht="12.75" customHeight="1">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
-      <c r="C747" s="4"/>
+      <c r="C747" s="12"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
@@ -21627,7 +21674,7 @@
     <row r="748" ht="12.75" customHeight="1">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
-      <c r="C748" s="4"/>
+      <c r="C748" s="12"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
@@ -21655,7 +21702,7 @@
     <row r="749" ht="12.75" customHeight="1">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
-      <c r="C749" s="4"/>
+      <c r="C749" s="12"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
@@ -21683,7 +21730,7 @@
     <row r="750" ht="12.75" customHeight="1">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
-      <c r="C750" s="4"/>
+      <c r="C750" s="12"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
@@ -21711,7 +21758,7 @@
     <row r="751" ht="12.75" customHeight="1">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
-      <c r="C751" s="4"/>
+      <c r="C751" s="12"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
@@ -21739,7 +21786,7 @@
     <row r="752" ht="12.75" customHeight="1">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
-      <c r="C752" s="4"/>
+      <c r="C752" s="12"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
@@ -21767,7 +21814,7 @@
     <row r="753" ht="12.75" customHeight="1">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
-      <c r="C753" s="4"/>
+      <c r="C753" s="12"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
@@ -21795,7 +21842,7 @@
     <row r="754" ht="12.75" customHeight="1">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
-      <c r="C754" s="4"/>
+      <c r="C754" s="12"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
@@ -21823,7 +21870,7 @@
     <row r="755" ht="12.75" customHeight="1">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
-      <c r="C755" s="4"/>
+      <c r="C755" s="12"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
@@ -21851,7 +21898,7 @@
     <row r="756" ht="12.75" customHeight="1">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
-      <c r="C756" s="4"/>
+      <c r="C756" s="12"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
@@ -21879,7 +21926,7 @@
     <row r="757" ht="12.75" customHeight="1">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
-      <c r="C757" s="4"/>
+      <c r="C757" s="12"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
@@ -21907,7 +21954,7 @@
     <row r="758" ht="12.75" customHeight="1">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
-      <c r="C758" s="4"/>
+      <c r="C758" s="12"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
@@ -21935,7 +21982,7 @@
     <row r="759" ht="12.75" customHeight="1">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
-      <c r="C759" s="4"/>
+      <c r="C759" s="12"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
@@ -21963,7 +22010,7 @@
     <row r="760" ht="12.75" customHeight="1">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
-      <c r="C760" s="4"/>
+      <c r="C760" s="12"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
@@ -21991,7 +22038,7 @@
     <row r="761" ht="12.75" customHeight="1">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
-      <c r="C761" s="4"/>
+      <c r="C761" s="12"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
@@ -22019,7 +22066,7 @@
     <row r="762" ht="12.75" customHeight="1">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
-      <c r="C762" s="4"/>
+      <c r="C762" s="12"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
@@ -22047,7 +22094,7 @@
     <row r="763" ht="12.75" customHeight="1">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
-      <c r="C763" s="4"/>
+      <c r="C763" s="12"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
@@ -22075,7 +22122,7 @@
     <row r="764" ht="12.75" customHeight="1">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
-      <c r="C764" s="4"/>
+      <c r="C764" s="12"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
@@ -22103,7 +22150,7 @@
     <row r="765" ht="12.75" customHeight="1">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
-      <c r="C765" s="4"/>
+      <c r="C765" s="12"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
@@ -22131,7 +22178,7 @@
     <row r="766" ht="12.75" customHeight="1">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
-      <c r="C766" s="4"/>
+      <c r="C766" s="12"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
@@ -22159,7 +22206,7 @@
     <row r="767" ht="12.75" customHeight="1">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
-      <c r="C767" s="4"/>
+      <c r="C767" s="12"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
@@ -22187,7 +22234,7 @@
     <row r="768" ht="12.75" customHeight="1">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
-      <c r="C768" s="4"/>
+      <c r="C768" s="12"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
@@ -22215,7 +22262,7 @@
     <row r="769" ht="12.75" customHeight="1">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
-      <c r="C769" s="4"/>
+      <c r="C769" s="12"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
@@ -22243,7 +22290,7 @@
     <row r="770" ht="12.75" customHeight="1">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
-      <c r="C770" s="4"/>
+      <c r="C770" s="12"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
@@ -22271,7 +22318,7 @@
     <row r="771" ht="12.75" customHeight="1">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
-      <c r="C771" s="4"/>
+      <c r="C771" s="12"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
@@ -22299,7 +22346,7 @@
     <row r="772" ht="12.75" customHeight="1">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
-      <c r="C772" s="4"/>
+      <c r="C772" s="12"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
@@ -22327,7 +22374,7 @@
     <row r="773" ht="12.75" customHeight="1">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
-      <c r="C773" s="4"/>
+      <c r="C773" s="12"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
@@ -22355,7 +22402,7 @@
     <row r="774" ht="12.75" customHeight="1">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
-      <c r="C774" s="4"/>
+      <c r="C774" s="12"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
@@ -22383,7 +22430,7 @@
     <row r="775" ht="12.75" customHeight="1">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
-      <c r="C775" s="4"/>
+      <c r="C775" s="12"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
@@ -22411,7 +22458,7 @@
     <row r="776" ht="12.75" customHeight="1">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
-      <c r="C776" s="4"/>
+      <c r="C776" s="12"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
@@ -22439,7 +22486,7 @@
     <row r="777" ht="12.75" customHeight="1">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
-      <c r="C777" s="4"/>
+      <c r="C777" s="12"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
@@ -22467,7 +22514,7 @@
     <row r="778" ht="12.75" customHeight="1">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
-      <c r="C778" s="4"/>
+      <c r="C778" s="12"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
@@ -22495,7 +22542,7 @@
     <row r="779" ht="12.75" customHeight="1">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
-      <c r="C779" s="4"/>
+      <c r="C779" s="12"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
@@ -22523,7 +22570,7 @@
     <row r="780" ht="12.75" customHeight="1">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
-      <c r="C780" s="4"/>
+      <c r="C780" s="12"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
@@ -22551,7 +22598,7 @@
     <row r="781" ht="12.75" customHeight="1">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
-      <c r="C781" s="4"/>
+      <c r="C781" s="12"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
@@ -22579,7 +22626,7 @@
     <row r="782" ht="12.75" customHeight="1">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
-      <c r="C782" s="4"/>
+      <c r="C782" s="12"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
@@ -22607,7 +22654,7 @@
     <row r="783" ht="12.75" customHeight="1">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
-      <c r="C783" s="4"/>
+      <c r="C783" s="12"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
@@ -22635,7 +22682,7 @@
     <row r="784" ht="12.75" customHeight="1">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
-      <c r="C784" s="4"/>
+      <c r="C784" s="12"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
@@ -22663,7 +22710,7 @@
     <row r="785" ht="12.75" customHeight="1">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
-      <c r="C785" s="4"/>
+      <c r="C785" s="12"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
@@ -22691,7 +22738,7 @@
     <row r="786" ht="12.75" customHeight="1">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
-      <c r="C786" s="4"/>
+      <c r="C786" s="12"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
@@ -22719,7 +22766,7 @@
     <row r="787" ht="12.75" customHeight="1">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
-      <c r="C787" s="4"/>
+      <c r="C787" s="12"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
@@ -22747,7 +22794,7 @@
     <row r="788" ht="12.75" customHeight="1">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
-      <c r="C788" s="4"/>
+      <c r="C788" s="12"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
@@ -22775,7 +22822,7 @@
     <row r="789" ht="12.75" customHeight="1">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
-      <c r="C789" s="4"/>
+      <c r="C789" s="12"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
@@ -22803,7 +22850,7 @@
     <row r="790" ht="12.75" customHeight="1">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
-      <c r="C790" s="4"/>
+      <c r="C790" s="12"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
@@ -22831,7 +22878,7 @@
     <row r="791" ht="12.75" customHeight="1">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
-      <c r="C791" s="4"/>
+      <c r="C791" s="12"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
@@ -22859,7 +22906,7 @@
     <row r="792" ht="12.75" customHeight="1">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
-      <c r="C792" s="4"/>
+      <c r="C792" s="12"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
@@ -22887,7 +22934,7 @@
     <row r="793" ht="12.75" customHeight="1">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
-      <c r="C793" s="4"/>
+      <c r="C793" s="12"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
@@ -22915,7 +22962,7 @@
     <row r="794" ht="12.75" customHeight="1">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
-      <c r="C794" s="4"/>
+      <c r="C794" s="12"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
@@ -22943,7 +22990,7 @@
     <row r="795" ht="12.75" customHeight="1">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
-      <c r="C795" s="4"/>
+      <c r="C795" s="12"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
@@ -22971,7 +23018,7 @@
     <row r="796" ht="12.75" customHeight="1">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
-      <c r="C796" s="4"/>
+      <c r="C796" s="12"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
@@ -22999,7 +23046,7 @@
     <row r="797" ht="12.75" customHeight="1">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
-      <c r="C797" s="4"/>
+      <c r="C797" s="12"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
@@ -23027,7 +23074,7 @@
     <row r="798" ht="12.75" customHeight="1">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
-      <c r="C798" s="4"/>
+      <c r="C798" s="12"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
@@ -23055,7 +23102,7 @@
     <row r="799" ht="12.75" customHeight="1">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
-      <c r="C799" s="4"/>
+      <c r="C799" s="12"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
@@ -23083,7 +23130,7 @@
     <row r="800" ht="12.75" customHeight="1">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
-      <c r="C800" s="4"/>
+      <c r="C800" s="12"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
@@ -23111,7 +23158,7 @@
     <row r="801" ht="12.75" customHeight="1">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
-      <c r="C801" s="4"/>
+      <c r="C801" s="12"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
@@ -23139,7 +23186,7 @@
     <row r="802" ht="12.75" customHeight="1">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
-      <c r="C802" s="4"/>
+      <c r="C802" s="12"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
@@ -23167,7 +23214,7 @@
     <row r="803" ht="12.75" customHeight="1">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
-      <c r="C803" s="4"/>
+      <c r="C803" s="12"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
@@ -23195,7 +23242,7 @@
     <row r="804" ht="12.75" customHeight="1">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
-      <c r="C804" s="4"/>
+      <c r="C804" s="12"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
@@ -23223,7 +23270,7 @@
     <row r="805" ht="12.75" customHeight="1">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
-      <c r="C805" s="4"/>
+      <c r="C805" s="12"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
@@ -23251,7 +23298,7 @@
     <row r="806" ht="12.75" customHeight="1">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
-      <c r="C806" s="4"/>
+      <c r="C806" s="12"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
@@ -23279,7 +23326,7 @@
     <row r="807" ht="12.75" customHeight="1">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
+      <c r="C807" s="12"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
@@ -23307,7 +23354,7 @@
     <row r="808" ht="12.75" customHeight="1">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
-      <c r="C808" s="4"/>
+      <c r="C808" s="12"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
@@ -23335,7 +23382,7 @@
     <row r="809" ht="12.75" customHeight="1">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
-      <c r="C809" s="4"/>
+      <c r="C809" s="12"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
@@ -23363,7 +23410,7 @@
     <row r="810" ht="12.75" customHeight="1">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
-      <c r="C810" s="4"/>
+      <c r="C810" s="12"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
@@ -23391,7 +23438,7 @@
     <row r="811" ht="12.75" customHeight="1">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
-      <c r="C811" s="4"/>
+      <c r="C811" s="12"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
@@ -23419,7 +23466,7 @@
     <row r="812" ht="12.75" customHeight="1">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
-      <c r="C812" s="4"/>
+      <c r="C812" s="12"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
@@ -23447,7 +23494,7 @@
     <row r="813" ht="12.75" customHeight="1">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
-      <c r="C813" s="4"/>
+      <c r="C813" s="12"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
@@ -23475,7 +23522,7 @@
     <row r="814" ht="12.75" customHeight="1">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
-      <c r="C814" s="4"/>
+      <c r="C814" s="12"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
@@ -23503,7 +23550,7 @@
     <row r="815" ht="12.75" customHeight="1">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
-      <c r="C815" s="4"/>
+      <c r="C815" s="12"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
@@ -23531,7 +23578,7 @@
     <row r="816" ht="12.75" customHeight="1">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
-      <c r="C816" s="4"/>
+      <c r="C816" s="12"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
@@ -23559,7 +23606,7 @@
     <row r="817" ht="12.75" customHeight="1">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
-      <c r="C817" s="4"/>
+      <c r="C817" s="12"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
@@ -23587,7 +23634,7 @@
     <row r="818" ht="12.75" customHeight="1">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
-      <c r="C818" s="4"/>
+      <c r="C818" s="12"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
@@ -23615,7 +23662,7 @@
     <row r="819" ht="12.75" customHeight="1">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
-      <c r="C819" s="4"/>
+      <c r="C819" s="12"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
@@ -23643,7 +23690,7 @@
     <row r="820" ht="12.75" customHeight="1">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
-      <c r="C820" s="4"/>
+      <c r="C820" s="12"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
@@ -23671,7 +23718,7 @@
     <row r="821" ht="12.75" customHeight="1">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
-      <c r="C821" s="4"/>
+      <c r="C821" s="12"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
@@ -23699,7 +23746,7 @@
     <row r="822" ht="12.75" customHeight="1">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
-      <c r="C822" s="4"/>
+      <c r="C822" s="12"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
@@ -23727,7 +23774,7 @@
     <row r="823" ht="12.75" customHeight="1">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
-      <c r="C823" s="4"/>
+      <c r="C823" s="12"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
@@ -23755,7 +23802,7 @@
     <row r="824" ht="12.75" customHeight="1">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
-      <c r="C824" s="4"/>
+      <c r="C824" s="12"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
@@ -23783,7 +23830,7 @@
     <row r="825" ht="12.75" customHeight="1">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
-      <c r="C825" s="4"/>
+      <c r="C825" s="12"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
@@ -23811,7 +23858,7 @@
     <row r="826" ht="12.75" customHeight="1">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
-      <c r="C826" s="4"/>
+      <c r="C826" s="12"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
@@ -23839,7 +23886,7 @@
     <row r="827" ht="12.75" customHeight="1">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
-      <c r="C827" s="4"/>
+      <c r="C827" s="12"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
@@ -23867,7 +23914,7 @@
     <row r="828" ht="12.75" customHeight="1">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
-      <c r="C828" s="4"/>
+      <c r="C828" s="12"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
@@ -23895,7 +23942,7 @@
     <row r="829" ht="12.75" customHeight="1">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
-      <c r="C829" s="4"/>
+      <c r="C829" s="12"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
@@ -23923,7 +23970,7 @@
     <row r="830" ht="12.75" customHeight="1">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
-      <c r="C830" s="4"/>
+      <c r="C830" s="12"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
@@ -23951,7 +23998,7 @@
     <row r="831" ht="12.75" customHeight="1">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
-      <c r="C831" s="4"/>
+      <c r="C831" s="12"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
@@ -23979,7 +24026,7 @@
     <row r="832" ht="12.75" customHeight="1">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
-      <c r="C832" s="4"/>
+      <c r="C832" s="12"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
@@ -24007,7 +24054,7 @@
     <row r="833" ht="12.75" customHeight="1">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
-      <c r="C833" s="4"/>
+      <c r="C833" s="12"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
@@ -24035,7 +24082,7 @@
     <row r="834" ht="12.75" customHeight="1">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
-      <c r="C834" s="4"/>
+      <c r="C834" s="12"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
@@ -24063,7 +24110,7 @@
     <row r="835" ht="12.75" customHeight="1">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
-      <c r="C835" s="4"/>
+      <c r="C835" s="12"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
@@ -24091,7 +24138,7 @@
     <row r="836" ht="12.75" customHeight="1">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
-      <c r="C836" s="4"/>
+      <c r="C836" s="12"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
@@ -24119,7 +24166,7 @@
     <row r="837" ht="12.75" customHeight="1">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
-      <c r="C837" s="4"/>
+      <c r="C837" s="12"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
@@ -24147,7 +24194,7 @@
     <row r="838" ht="12.75" customHeight="1">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
-      <c r="C838" s="4"/>
+      <c r="C838" s="12"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
@@ -24175,7 +24222,7 @@
     <row r="839" ht="12.75" customHeight="1">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
-      <c r="C839" s="4"/>
+      <c r="C839" s="12"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
@@ -24203,7 +24250,7 @@
     <row r="840" ht="12.75" customHeight="1">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
-      <c r="C840" s="4"/>
+      <c r="C840" s="12"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
@@ -24231,7 +24278,7 @@
     <row r="841" ht="12.75" customHeight="1">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
-      <c r="C841" s="4"/>
+      <c r="C841" s="12"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
@@ -24259,7 +24306,7 @@
     <row r="842" ht="12.75" customHeight="1">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
-      <c r="C842" s="4"/>
+      <c r="C842" s="12"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
@@ -24287,7 +24334,7 @@
     <row r="843" ht="12.75" customHeight="1">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
-      <c r="C843" s="4"/>
+      <c r="C843" s="12"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
@@ -24315,7 +24362,7 @@
     <row r="844" ht="12.75" customHeight="1">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
-      <c r="C844" s="4"/>
+      <c r="C844" s="12"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
@@ -24343,7 +24390,7 @@
     <row r="845" ht="12.75" customHeight="1">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
-      <c r="C845" s="4"/>
+      <c r="C845" s="12"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
@@ -24371,7 +24418,7 @@
     <row r="846" ht="12.75" customHeight="1">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
-      <c r="C846" s="4"/>
+      <c r="C846" s="12"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
@@ -24399,7 +24446,7 @@
     <row r="847" ht="12.75" customHeight="1">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
-      <c r="C847" s="4"/>
+      <c r="C847" s="12"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
@@ -24427,7 +24474,7 @@
     <row r="848" ht="12.75" customHeight="1">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
-      <c r="C848" s="4"/>
+      <c r="C848" s="12"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
@@ -24455,7 +24502,7 @@
     <row r="849" ht="12.75" customHeight="1">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
-      <c r="C849" s="4"/>
+      <c r="C849" s="12"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
@@ -24483,7 +24530,7 @@
     <row r="850" ht="12.75" customHeight="1">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
-      <c r="C850" s="4"/>
+      <c r="C850" s="12"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
@@ -24511,7 +24558,7 @@
     <row r="851" ht="12.75" customHeight="1">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
-      <c r="C851" s="4"/>
+      <c r="C851" s="12"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
@@ -24539,7 +24586,7 @@
     <row r="852" ht="12.75" customHeight="1">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
-      <c r="C852" s="4"/>
+      <c r="C852" s="12"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
@@ -24567,7 +24614,7 @@
     <row r="853" ht="12.75" customHeight="1">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
-      <c r="C853" s="4"/>
+      <c r="C853" s="12"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
@@ -24595,7 +24642,7 @@
     <row r="854" ht="12.75" customHeight="1">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
-      <c r="C854" s="4"/>
+      <c r="C854" s="12"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
@@ -24623,7 +24670,7 @@
     <row r="855" ht="12.75" customHeight="1">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
-      <c r="C855" s="4"/>
+      <c r="C855" s="12"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
@@ -24651,7 +24698,7 @@
     <row r="856" ht="12.75" customHeight="1">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
-      <c r="C856" s="4"/>
+      <c r="C856" s="12"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
@@ -24679,7 +24726,7 @@
     <row r="857" ht="12.75" customHeight="1">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
-      <c r="C857" s="4"/>
+      <c r="C857" s="12"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
@@ -24707,7 +24754,7 @@
     <row r="858" ht="12.75" customHeight="1">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
-      <c r="C858" s="4"/>
+      <c r="C858" s="12"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
@@ -24735,7 +24782,7 @@
     <row r="859" ht="12.75" customHeight="1">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
-      <c r="C859" s="4"/>
+      <c r="C859" s="12"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
@@ -24763,7 +24810,7 @@
     <row r="860" ht="12.75" customHeight="1">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
-      <c r="C860" s="4"/>
+      <c r="C860" s="12"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
@@ -24791,7 +24838,7 @@
     <row r="861" ht="12.75" customHeight="1">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
-      <c r="C861" s="4"/>
+      <c r="C861" s="12"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
@@ -24819,7 +24866,7 @@
     <row r="862" ht="12.75" customHeight="1">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
-      <c r="C862" s="4"/>
+      <c r="C862" s="12"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
@@ -24847,7 +24894,7 @@
     <row r="863" ht="12.75" customHeight="1">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
-      <c r="C863" s="4"/>
+      <c r="C863" s="12"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
@@ -24875,7 +24922,7 @@
     <row r="864" ht="12.75" customHeight="1">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
-      <c r="C864" s="4"/>
+      <c r="C864" s="12"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
@@ -24903,7 +24950,7 @@
     <row r="865" ht="12.75" customHeight="1">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
-      <c r="C865" s="4"/>
+      <c r="C865" s="12"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
@@ -24931,7 +24978,7 @@
     <row r="866" ht="12.75" customHeight="1">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
-      <c r="C866" s="4"/>
+      <c r="C866" s="12"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
@@ -24959,7 +25006,7 @@
     <row r="867" ht="12.75" customHeight="1">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
-      <c r="C867" s="4"/>
+      <c r="C867" s="12"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
@@ -24987,7 +25034,7 @@
     <row r="868" ht="12.75" customHeight="1">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
-      <c r="C868" s="4"/>
+      <c r="C868" s="12"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
@@ -25015,7 +25062,7 @@
     <row r="869" ht="12.75" customHeight="1">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
-      <c r="C869" s="4"/>
+      <c r="C869" s="12"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
@@ -25043,7 +25090,7 @@
     <row r="870" ht="12.75" customHeight="1">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
-      <c r="C870" s="4"/>
+      <c r="C870" s="12"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
@@ -25071,7 +25118,7 @@
     <row r="871" ht="12.75" customHeight="1">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
-      <c r="C871" s="4"/>
+      <c r="C871" s="12"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
@@ -25099,7 +25146,7 @@
     <row r="872" ht="12.75" customHeight="1">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
-      <c r="C872" s="4"/>
+      <c r="C872" s="12"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
@@ -25127,7 +25174,7 @@
     <row r="873" ht="12.75" customHeight="1">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
-      <c r="C873" s="4"/>
+      <c r="C873" s="12"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
@@ -25155,7 +25202,7 @@
     <row r="874" ht="12.75" customHeight="1">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
-      <c r="C874" s="4"/>
+      <c r="C874" s="12"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
@@ -25183,7 +25230,7 @@
     <row r="875" ht="12.75" customHeight="1">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
-      <c r="C875" s="4"/>
+      <c r="C875" s="12"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
@@ -25211,7 +25258,7 @@
     <row r="876" ht="12.75" customHeight="1">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
-      <c r="C876" s="4"/>
+      <c r="C876" s="12"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
@@ -25239,7 +25286,7 @@
     <row r="877" ht="12.75" customHeight="1">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
-      <c r="C877" s="4"/>
+      <c r="C877" s="12"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
@@ -25267,7 +25314,7 @@
     <row r="878" ht="12.75" customHeight="1">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
-      <c r="C878" s="4"/>
+      <c r="C878" s="12"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
@@ -25295,7 +25342,7 @@
     <row r="879" ht="12.75" customHeight="1">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
-      <c r="C879" s="4"/>
+      <c r="C879" s="12"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
@@ -25323,7 +25370,7 @@
     <row r="880" ht="12.75" customHeight="1">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
-      <c r="C880" s="4"/>
+      <c r="C880" s="12"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
@@ -25351,7 +25398,7 @@
     <row r="881" ht="12.75" customHeight="1">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
-      <c r="C881" s="4"/>
+      <c r="C881" s="12"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
@@ -25379,7 +25426,7 @@
     <row r="882" ht="12.75" customHeight="1">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
-      <c r="C882" s="4"/>
+      <c r="C882" s="12"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
@@ -25407,7 +25454,7 @@
     <row r="883" ht="12.75" customHeight="1">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
-      <c r="C883" s="4"/>
+      <c r="C883" s="12"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
@@ -25435,7 +25482,7 @@
     <row r="884" ht="12.75" customHeight="1">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
-      <c r="C884" s="4"/>
+      <c r="C884" s="12"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
@@ -25463,7 +25510,7 @@
     <row r="885" ht="12.75" customHeight="1">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
-      <c r="C885" s="4"/>
+      <c r="C885" s="12"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
@@ -25491,7 +25538,7 @@
     <row r="886" ht="12.75" customHeight="1">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
-      <c r="C886" s="4"/>
+      <c r="C886" s="12"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
@@ -25519,7 +25566,7 @@
     <row r="887" ht="12.75" customHeight="1">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
-      <c r="C887" s="4"/>
+      <c r="C887" s="12"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
@@ -25547,7 +25594,7 @@
     <row r="888" ht="12.75" customHeight="1">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
-      <c r="C888" s="4"/>
+      <c r="C888" s="12"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
@@ -25575,7 +25622,7 @@
     <row r="889" ht="12.75" customHeight="1">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
-      <c r="C889" s="4"/>
+      <c r="C889" s="12"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
@@ -25603,7 +25650,7 @@
     <row r="890" ht="12.75" customHeight="1">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
-      <c r="C890" s="4"/>
+      <c r="C890" s="12"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
@@ -25631,7 +25678,7 @@
     <row r="891" ht="12.75" customHeight="1">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
-      <c r="C891" s="4"/>
+      <c r="C891" s="12"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
@@ -25659,7 +25706,7 @@
     <row r="892" ht="12.75" customHeight="1">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
-      <c r="C892" s="4"/>
+      <c r="C892" s="12"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
@@ -25687,7 +25734,7 @@
     <row r="893" ht="12.75" customHeight="1">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
-      <c r="C893" s="4"/>
+      <c r="C893" s="12"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
@@ -25715,7 +25762,7 @@
     <row r="894" ht="12.75" customHeight="1">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
-      <c r="C894" s="4"/>
+      <c r="C894" s="12"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
@@ -25743,7 +25790,7 @@
     <row r="895" ht="12.75" customHeight="1">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
-      <c r="C895" s="4"/>
+      <c r="C895" s="12"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
@@ -25771,7 +25818,7 @@
     <row r="896" ht="12.75" customHeight="1">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
-      <c r="C896" s="4"/>
+      <c r="C896" s="12"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
@@ -25799,7 +25846,7 @@
     <row r="897" ht="12.75" customHeight="1">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
-      <c r="C897" s="4"/>
+      <c r="C897" s="12"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
@@ -25827,7 +25874,7 @@
     <row r="898" ht="12.75" customHeight="1">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
-      <c r="C898" s="4"/>
+      <c r="C898" s="12"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
@@ -25855,7 +25902,7 @@
     <row r="899" ht="12.75" customHeight="1">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
-      <c r="C899" s="4"/>
+      <c r="C899" s="12"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
@@ -25883,7 +25930,7 @@
     <row r="900" ht="12.75" customHeight="1">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
-      <c r="C900" s="4"/>
+      <c r="C900" s="12"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
@@ -25911,7 +25958,7 @@
     <row r="901" ht="12.75" customHeight="1">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
-      <c r="C901" s="4"/>
+      <c r="C901" s="12"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
@@ -25939,7 +25986,7 @@
     <row r="902" ht="12.75" customHeight="1">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
-      <c r="C902" s="4"/>
+      <c r="C902" s="12"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
@@ -25967,7 +26014,7 @@
     <row r="903" ht="12.75" customHeight="1">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
-      <c r="C903" s="4"/>
+      <c r="C903" s="12"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
@@ -25995,7 +26042,7 @@
     <row r="904" ht="12.75" customHeight="1">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
-      <c r="C904" s="4"/>
+      <c r="C904" s="12"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
@@ -26023,7 +26070,7 @@
     <row r="905" ht="12.75" customHeight="1">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
-      <c r="C905" s="4"/>
+      <c r="C905" s="12"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
@@ -26051,7 +26098,7 @@
     <row r="906" ht="12.75" customHeight="1">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
-      <c r="C906" s="4"/>
+      <c r="C906" s="12"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
@@ -26079,7 +26126,7 @@
     <row r="907" ht="12.75" customHeight="1">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
-      <c r="C907" s="4"/>
+      <c r="C907" s="12"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
@@ -26107,7 +26154,7 @@
     <row r="908" ht="12.75" customHeight="1">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
-      <c r="C908" s="4"/>
+      <c r="C908" s="12"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
@@ -26135,7 +26182,7 @@
     <row r="909" ht="12.75" customHeight="1">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
-      <c r="C909" s="4"/>
+      <c r="C909" s="12"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
@@ -26163,7 +26210,7 @@
     <row r="910" ht="12.75" customHeight="1">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
-      <c r="C910" s="4"/>
+      <c r="C910" s="12"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
@@ -26191,7 +26238,7 @@
     <row r="911" ht="12.75" customHeight="1">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
-      <c r="C911" s="4"/>
+      <c r="C911" s="12"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
@@ -26219,7 +26266,7 @@
     <row r="912" ht="12.75" customHeight="1">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
-      <c r="C912" s="4"/>
+      <c r="C912" s="12"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
@@ -26247,7 +26294,7 @@
     <row r="913" ht="12.75" customHeight="1">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
-      <c r="C913" s="4"/>
+      <c r="C913" s="12"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
@@ -26275,7 +26322,7 @@
     <row r="914" ht="12.75" customHeight="1">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
-      <c r="C914" s="4"/>
+      <c r="C914" s="12"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
@@ -26303,7 +26350,7 @@
     <row r="915" ht="12.75" customHeight="1">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
-      <c r="C915" s="4"/>
+      <c r="C915" s="12"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
@@ -26331,7 +26378,7 @@
     <row r="916" ht="12.75" customHeight="1">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
-      <c r="C916" s="4"/>
+      <c r="C916" s="12"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
@@ -26359,7 +26406,7 @@
     <row r="917" ht="12.75" customHeight="1">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
-      <c r="C917" s="4"/>
+      <c r="C917" s="12"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
@@ -26387,7 +26434,7 @@
     <row r="918" ht="12.75" customHeight="1">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
-      <c r="C918" s="4"/>
+      <c r="C918" s="12"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
@@ -26415,7 +26462,7 @@
     <row r="919" ht="12.75" customHeight="1">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
-      <c r="C919" s="4"/>
+      <c r="C919" s="12"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
@@ -26443,7 +26490,7 @@
     <row r="920" ht="12.75" customHeight="1">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
-      <c r="C920" s="4"/>
+      <c r="C920" s="12"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
@@ -26471,7 +26518,7 @@
     <row r="921" ht="12.75" customHeight="1">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
-      <c r="C921" s="4"/>
+      <c r="C921" s="12"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
@@ -26499,7 +26546,7 @@
     <row r="922" ht="12.75" customHeight="1">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
-      <c r="C922" s="4"/>
+      <c r="C922" s="12"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
@@ -26527,7 +26574,7 @@
     <row r="923" ht="12.75" customHeight="1">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
-      <c r="C923" s="4"/>
+      <c r="C923" s="12"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
@@ -26555,7 +26602,7 @@
     <row r="924" ht="12.75" customHeight="1">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
-      <c r="C924" s="4"/>
+      <c r="C924" s="12"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
@@ -26583,7 +26630,7 @@
     <row r="925" ht="12.75" customHeight="1">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
-      <c r="C925" s="4"/>
+      <c r="C925" s="12"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
@@ -26611,7 +26658,7 @@
     <row r="926" ht="12.75" customHeight="1">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
-      <c r="C926" s="4"/>
+      <c r="C926" s="12"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
@@ -26639,7 +26686,7 @@
     <row r="927" ht="12.75" customHeight="1">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
-      <c r="C927" s="4"/>
+      <c r="C927" s="12"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
@@ -26667,7 +26714,7 @@
     <row r="928" ht="12.75" customHeight="1">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
-      <c r="C928" s="4"/>
+      <c r="C928" s="12"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
@@ -26695,7 +26742,7 @@
     <row r="929" ht="12.75" customHeight="1">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
-      <c r="C929" s="4"/>
+      <c r="C929" s="12"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
@@ -26723,7 +26770,7 @@
     <row r="930" ht="12.75" customHeight="1">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
-      <c r="C930" s="4"/>
+      <c r="C930" s="12"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
@@ -26751,7 +26798,7 @@
     <row r="931" ht="12.75" customHeight="1">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
-      <c r="C931" s="4"/>
+      <c r="C931" s="12"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
@@ -26779,7 +26826,7 @@
     <row r="932" ht="12.75" customHeight="1">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
-      <c r="C932" s="4"/>
+      <c r="C932" s="12"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
@@ -26807,7 +26854,7 @@
     <row r="933" ht="12.75" customHeight="1">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
-      <c r="C933" s="4"/>
+      <c r="C933" s="12"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
@@ -26835,7 +26882,7 @@
     <row r="934" ht="12.75" customHeight="1">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
-      <c r="C934" s="4"/>
+      <c r="C934" s="12"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
@@ -26863,7 +26910,7 @@
     <row r="935" ht="12.75" customHeight="1">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
-      <c r="C935" s="4"/>
+      <c r="C935" s="12"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
@@ -26891,7 +26938,7 @@
     <row r="936" ht="12.75" customHeight="1">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
-      <c r="C936" s="4"/>
+      <c r="C936" s="12"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
@@ -26919,7 +26966,7 @@
     <row r="937" ht="12.75" customHeight="1">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
-      <c r="C937" s="4"/>
+      <c r="C937" s="12"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
@@ -26947,7 +26994,7 @@
     <row r="938" ht="12.75" customHeight="1">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
-      <c r="C938" s="4"/>
+      <c r="C938" s="12"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
@@ -26975,7 +27022,7 @@
     <row r="939" ht="12.75" customHeight="1">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
-      <c r="C939" s="4"/>
+      <c r="C939" s="12"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
@@ -27003,7 +27050,7 @@
     <row r="940" ht="12.75" customHeight="1">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
-      <c r="C940" s="4"/>
+      <c r="C940" s="12"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
@@ -27031,7 +27078,7 @@
     <row r="941" ht="12.75" customHeight="1">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
-      <c r="C941" s="4"/>
+      <c r="C941" s="12"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
@@ -27059,7 +27106,7 @@
     <row r="942" ht="12.75" customHeight="1">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
-      <c r="C942" s="4"/>
+      <c r="C942" s="12"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
@@ -27087,7 +27134,7 @@
     <row r="943" ht="12.75" customHeight="1">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
-      <c r="C943" s="4"/>
+      <c r="C943" s="12"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
@@ -27115,7 +27162,7 @@
     <row r="944" ht="12.75" customHeight="1">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
-      <c r="C944" s="4"/>
+      <c r="C944" s="12"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
@@ -27143,7 +27190,7 @@
     <row r="945" ht="12.75" customHeight="1">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
-      <c r="C945" s="4"/>
+      <c r="C945" s="12"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
@@ -27171,7 +27218,7 @@
     <row r="946" ht="12.75" customHeight="1">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
-      <c r="C946" s="4"/>
+      <c r="C946" s="12"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
@@ -27199,7 +27246,7 @@
     <row r="947" ht="12.75" customHeight="1">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
-      <c r="C947" s="4"/>
+      <c r="C947" s="12"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
@@ -27227,7 +27274,7 @@
     <row r="948" ht="12.75" customHeight="1">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
-      <c r="C948" s="4"/>
+      <c r="C948" s="12"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
@@ -27255,7 +27302,7 @@
     <row r="949" ht="12.75" customHeight="1">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
-      <c r="C949" s="4"/>
+      <c r="C949" s="12"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
@@ -27283,7 +27330,7 @@
     <row r="950" ht="12.75" customHeight="1">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
-      <c r="C950" s="4"/>
+      <c r="C950" s="12"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
@@ -27311,7 +27358,7 @@
     <row r="951" ht="12.75" customHeight="1">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
-      <c r="C951" s="4"/>
+      <c r="C951" s="12"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
@@ -27339,7 +27386,7 @@
     <row r="952" ht="12.75" customHeight="1">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
-      <c r="C952" s="4"/>
+      <c r="C952" s="12"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
@@ -27367,7 +27414,7 @@
     <row r="953" ht="12.75" customHeight="1">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
-      <c r="C953" s="4"/>
+      <c r="C953" s="12"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
@@ -27395,7 +27442,7 @@
     <row r="954" ht="12.75" customHeight="1">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
-      <c r="C954" s="4"/>
+      <c r="C954" s="12"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
@@ -27423,7 +27470,7 @@
     <row r="955" ht="12.75" customHeight="1">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
-      <c r="C955" s="4"/>
+      <c r="C955" s="12"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
@@ -27451,7 +27498,7 @@
     <row r="956" ht="12.75" customHeight="1">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
-      <c r="C956" s="4"/>
+      <c r="C956" s="12"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
@@ -27479,7 +27526,7 @@
     <row r="957" ht="12.75" customHeight="1">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
-      <c r="C957" s="4"/>
+      <c r="C957" s="12"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
@@ -27507,7 +27554,7 @@
     <row r="958" ht="12.75" customHeight="1">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
-      <c r="C958" s="4"/>
+      <c r="C958" s="12"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
@@ -27535,7 +27582,7 @@
     <row r="959" ht="12.75" customHeight="1">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
-      <c r="C959" s="4"/>
+      <c r="C959" s="12"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
@@ -27563,7 +27610,7 @@
     <row r="960" ht="12.75" customHeight="1">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
-      <c r="C960" s="4"/>
+      <c r="C960" s="12"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
@@ -27591,7 +27638,7 @@
     <row r="961" ht="12.75" customHeight="1">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
-      <c r="C961" s="4"/>
+      <c r="C961" s="12"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
@@ -27619,7 +27666,7 @@
     <row r="962" ht="12.75" customHeight="1">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
-      <c r="C962" s="4"/>
+      <c r="C962" s="12"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
@@ -27647,7 +27694,7 @@
     <row r="963" ht="12.75" customHeight="1">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
-      <c r="C963" s="4"/>
+      <c r="C963" s="12"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
@@ -27675,7 +27722,7 @@
     <row r="964" ht="12.75" customHeight="1">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
-      <c r="C964" s="4"/>
+      <c r="C964" s="12"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
@@ -27703,7 +27750,7 @@
     <row r="965" ht="12.75" customHeight="1">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
-      <c r="C965" s="4"/>
+      <c r="C965" s="12"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
@@ -27731,7 +27778,7 @@
     <row r="966" ht="12.75" customHeight="1">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
-      <c r="C966" s="4"/>
+      <c r="C966" s="12"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
@@ -27759,7 +27806,7 @@
     <row r="967" ht="12.75" customHeight="1">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
-      <c r="C967" s="4"/>
+      <c r="C967" s="12"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
@@ -27787,7 +27834,7 @@
     <row r="968" ht="12.75" customHeight="1">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
-      <c r="C968" s="4"/>
+      <c r="C968" s="12"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
@@ -27815,7 +27862,7 @@
     <row r="969" ht="12.75" customHeight="1">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
-      <c r="C969" s="4"/>
+      <c r="C969" s="12"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
@@ -27843,7 +27890,7 @@
     <row r="970" ht="12.75" customHeight="1">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
-      <c r="C970" s="4"/>
+      <c r="C970" s="12"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
@@ -27871,7 +27918,7 @@
     <row r="971" ht="12.75" customHeight="1">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
-      <c r="C971" s="4"/>
+      <c r="C971" s="12"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
@@ -27899,7 +27946,7 @@
     <row r="972" ht="12.75" customHeight="1">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
-      <c r="C972" s="4"/>
+      <c r="C972" s="12"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
@@ -27927,7 +27974,7 @@
     <row r="973" ht="12.75" customHeight="1">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
-      <c r="C973" s="4"/>
+      <c r="C973" s="12"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
@@ -27955,7 +28002,7 @@
     <row r="974" ht="12.75" customHeight="1">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
-      <c r="C974" s="4"/>
+      <c r="C974" s="12"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
@@ -27983,7 +28030,7 @@
     <row r="975" ht="12.75" customHeight="1">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
+      <c r="C975" s="12"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
@@ -28011,7 +28058,7 @@
     <row r="976" ht="12.75" customHeight="1">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
+      <c r="C976" s="12"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
@@ -28039,7 +28086,7 @@
     <row r="977" ht="12.75" customHeight="1">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
+      <c r="C977" s="12"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
@@ -28067,7 +28114,7 @@
     <row r="978" ht="12.75" customHeight="1">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
-      <c r="C978" s="4"/>
+      <c r="C978" s="12"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
@@ -28095,7 +28142,7 @@
     <row r="979" ht="12.75" customHeight="1">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
-      <c r="C979" s="4"/>
+      <c r="C979" s="12"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
@@ -28123,7 +28170,7 @@
     <row r="980" ht="12.75" customHeight="1">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
-      <c r="C980" s="4"/>
+      <c r="C980" s="12"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
@@ -28151,7 +28198,7 @@
     <row r="981" ht="12.75" customHeight="1">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
-      <c r="C981" s="4"/>
+      <c r="C981" s="12"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
@@ -28179,7 +28226,7 @@
     <row r="982" ht="12.75" customHeight="1">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
-      <c r="C982" s="4"/>
+      <c r="C982" s="12"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
@@ -28207,7 +28254,7 @@
     <row r="983" ht="12.75" customHeight="1">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
+      <c r="C983" s="12"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
@@ -28235,7 +28282,7 @@
     <row r="984" ht="12.75" customHeight="1">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
+      <c r="C984" s="12"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
@@ -28263,7 +28310,7 @@
     <row r="985" ht="12.75" customHeight="1">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
+      <c r="C985" s="12"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
@@ -28291,7 +28338,7 @@
     <row r="986" ht="12.75" customHeight="1">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
+      <c r="C986" s="12"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
@@ -28319,7 +28366,7 @@
     <row r="987" ht="12.75" customHeight="1">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
-      <c r="C987" s="4"/>
+      <c r="C987" s="12"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
@@ -28347,7 +28394,7 @@
     <row r="988" ht="12.75" customHeight="1">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
-      <c r="C988" s="4"/>
+      <c r="C988" s="12"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
@@ -28375,7 +28422,7 @@
     <row r="989" ht="12.75" customHeight="1">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
-      <c r="C989" s="4"/>
+      <c r="C989" s="12"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
@@ -28403,7 +28450,7 @@
     <row r="990" ht="12.75" customHeight="1">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
+      <c r="C990" s="12"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
@@ -28431,7 +28478,7 @@
     <row r="991" ht="12.75" customHeight="1">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
+      <c r="C991" s="12"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
@@ -28459,7 +28506,7 @@
     <row r="992" ht="12.75" customHeight="1">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
+      <c r="C992" s="12"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
@@ -28487,7 +28534,7 @@
     <row r="993" ht="12.75" customHeight="1">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
+      <c r="C993" s="12"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
@@ -28515,7 +28562,7 @@
     <row r="994" ht="12.75" customHeight="1">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
+      <c r="C994" s="12"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
@@ -28543,7 +28590,7 @@
     <row r="995" ht="12.75" customHeight="1">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
+      <c r="C995" s="12"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
@@ -28571,7 +28618,7 @@
     <row r="996" ht="12.75" customHeight="1">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
+      <c r="C996" s="12"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
@@ -28599,7 +28646,7 @@
     <row r="997" ht="12.75" customHeight="1">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
+      <c r="C997" s="12"/>
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
@@ -28627,7 +28674,7 @@
     <row r="998" ht="12.75" customHeight="1">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
+      <c r="C998" s="12"/>
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
@@ -28655,7 +28702,7 @@
     <row r="999" ht="12.75" customHeight="1">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
+      <c r="C999" s="12"/>
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
@@ -28683,7 +28730,7 @@
     <row r="1000" ht="12.75" customHeight="1">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
+      <c r="C1000" s="12"/>
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
